--- a/data/meta_model/meta_model_R_copy1.xlsx
+++ b/data/meta_model/meta_model_R_copy1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d378ff900cd0a488/Wageningen/Master thesis/R Studio/msc_beeke/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d378ff900cd0a488/Wageningen/Master thesis/R Studio/msc_beeke/data/meta_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E35EF706-6D1C-45D8-8A81-D8A6EFAF874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BF5A547-4A50-4E5A-9EA2-2C854C6B1E60}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{E35EF706-6D1C-45D8-8A81-D8A6EFAF874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605FE814-50E4-40CF-9583-49F377A38EB2}"/>
   <bookViews>
-    <workbookView xWindow="32850" yWindow="-15870" windowWidth="25440" windowHeight="15270" firstSheet="2" activeTab="3" xr2:uid="{23E2EBDD-BBB4-413F-B5F8-622405BB80ED}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{23E2EBDD-BBB4-413F-B5F8-622405BB80ED}"/>
   </bookViews>
   <sheets>
     <sheet name="references" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9030" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8927" uniqueCount="371">
   <si>
     <t>paper_ID</t>
   </si>
@@ -1970,18 +1970,6 @@
     <t>N pool</t>
   </si>
   <si>
-    <t>&gt;6.5</t>
-  </si>
-  <si>
-    <t>&lt;6.5</t>
-  </si>
-  <si>
-    <t>&lt;30%</t>
-  </si>
-  <si>
-    <t>&gt;30%</t>
-  </si>
-  <si>
     <r>
       <t>&lt;10 g kg</t>
     </r>
@@ -2080,9 +2068,6 @@
   </si>
   <si>
     <t>30-40 %</t>
-  </si>
-  <si>
-    <t>*** Mel22 uses a fertilized control and therefore has a different approach the the other papers</t>
   </si>
   <si>
     <t>*** ES for bulk density are negative</t>
@@ -2233,7 +2218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2260,7 +2245,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2280,9 +2264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2320,7 +2304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2426,7 +2410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2568,7 +2552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2682,34 +2666,18 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q451" sqref="Q451"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.06640625" customWidth="1"/>
-    <col min="7" max="7" width="11.53125" customWidth="1"/>
-    <col min="8" max="8" width="4.06640625" customWidth="1"/>
-    <col min="9" max="9" width="6.53125" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" customWidth="1"/>
-    <col min="11" max="11" width="12.86328125" customWidth="1"/>
-    <col min="12" max="12" width="4.06640625" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="4.19921875" customWidth="1"/>
-    <col min="15" max="15" width="14.3984375" customWidth="1"/>
-    <col min="16" max="17" width="4.59765625" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="4.59765625" customWidth="1"/>
-    <col min="20" max="20" width="7.46484375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="5.06640625" customWidth="1"/>
-    <col min="24" max="24" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.06640625" customWidth="1"/>
+    <col min="1" max="1" width="7.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" customWidth="1"/>
+    <col min="3" max="3" width="7.9296875" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+    <col min="5" max="19" width="12.86328125" customWidth="1"/>
+    <col min="20" max="20" width="12.86328125" style="2" customWidth="1"/>
+    <col min="21" max="26" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
@@ -33183,10 +33151,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D463793D-A6D7-4CC6-BF64-63A98439A959}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33639,32 +33607,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>296</v>
-      </c>
-      <c r="J23" s="5">
-        <v>10</v>
-      </c>
-      <c r="K23">
-        <v>2.3991370545788135</v>
-      </c>
-      <c r="L23">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33672,11 +33614,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108F44-9AB1-43D9-B41B-7BC1ED64F125}">
-  <dimension ref="A1:N526"/>
+  <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B505" sqref="B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33705,22 +33647,22 @@
         <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>252</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H1" t="s">
         <v>253</v>
       </c>
       <c r="I1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J1" t="s">
         <v>254</v>
@@ -40783,7 +40725,7 @@
         <v>49</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
@@ -40931,7 +40873,7 @@
         <v>43</v>
       </c>
       <c r="J231" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K231" s="5">
         <v>-6.8686868686868596</v>
@@ -40966,7 +40908,7 @@
         <v>43</v>
       </c>
       <c r="J232" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K232" s="5">
         <v>-9.3602693602693599</v>
@@ -41001,7 +40943,7 @@
         <v>43</v>
       </c>
       <c r="J233" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K233" s="5">
         <v>-10.639730639730599</v>
@@ -41106,7 +41048,7 @@
         <v>44</v>
       </c>
       <c r="J236" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K236" s="5">
         <v>-10.909090909090899</v>
@@ -41141,7 +41083,7 @@
         <v>44</v>
       </c>
       <c r="J237" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K237" s="5">
         <v>-5.7912457912457898</v>
@@ -41176,7 +41118,7 @@
         <v>44</v>
       </c>
       <c r="J238" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K238" s="5">
         <v>-5.7912457912457898</v>
@@ -41281,7 +41223,7 @@
         <v>44</v>
       </c>
       <c r="J241" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K241" s="5">
         <v>-4.7811447811447803</v>
@@ -41316,7 +41258,7 @@
         <v>44</v>
       </c>
       <c r="J242" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K242" s="5">
         <v>-4.7811447811447803</v>
@@ -41351,7 +41293,7 @@
         <v>45</v>
       </c>
       <c r="J243" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K243" s="5">
         <v>-12.7272727272727</v>
@@ -41456,7 +41398,7 @@
         <v>45</v>
       </c>
       <c r="J246" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K246" s="5">
         <v>-9.6969696969696901</v>
@@ -41491,7 +41433,7 @@
         <v>45</v>
       </c>
       <c r="J247" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K247" s="5">
         <v>-6.2626262626262603</v>
@@ -41526,7 +41468,7 @@
         <v>45</v>
       </c>
       <c r="J248" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K248" s="5">
         <v>-6.2626262626262603</v>
@@ -41584,7 +41526,7 @@
         <v>145</v>
       </c>
       <c r="E250" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F250" t="s">
         <v>151</v>
@@ -41596,7 +41538,7 @@
         <v>43</v>
       </c>
       <c r="J250" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K250" s="5">
         <v>-11.1784511784511</v>
@@ -41619,7 +41561,7 @@
         <v>145</v>
       </c>
       <c r="E251" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F251" t="s">
         <v>148</v>
@@ -41631,7 +41573,7 @@
         <v>43</v>
       </c>
       <c r="J251" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K251" s="5">
         <v>-11.8518518518518</v>
@@ -41654,7 +41596,7 @@
         <v>145</v>
       </c>
       <c r="E252" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F252" t="s">
         <v>149</v>
@@ -41689,7 +41631,7 @@
         <v>145</v>
       </c>
       <c r="E253" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F253" t="s">
         <v>150</v>
@@ -41701,7 +41643,7 @@
         <v>43</v>
       </c>
       <c r="J253" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K253" s="5">
         <v>-6.5993265993266004</v>
@@ -41724,7 +41666,7 @@
         <v>145</v>
       </c>
       <c r="E254" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F254" t="s">
         <v>151</v>
@@ -41736,7 +41678,7 @@
         <v>44</v>
       </c>
       <c r="J254" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K254" s="5">
         <v>-8.4175084175084098</v>
@@ -41759,7 +41701,7 @@
         <v>145</v>
       </c>
       <c r="E255" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F255" t="s">
         <v>148</v>
@@ -41794,7 +41736,7 @@
         <v>145</v>
       </c>
       <c r="E256" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F256" t="s">
         <v>149</v>
@@ -41806,7 +41748,7 @@
         <v>44</v>
       </c>
       <c r="J256" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K256" s="5">
         <v>-6.12794612794612</v>
@@ -41829,7 +41771,7 @@
         <v>145</v>
       </c>
       <c r="E257" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F257" t="s">
         <v>150</v>
@@ -41841,7 +41783,7 @@
         <v>44</v>
       </c>
       <c r="J257" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K257" s="5">
         <v>-7.4747474747474696</v>
@@ -41864,7 +41806,7 @@
         <v>145</v>
       </c>
       <c r="E258" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F258" t="s">
         <v>151</v>
@@ -41899,7 +41841,7 @@
         <v>145</v>
       </c>
       <c r="E259" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F259" t="s">
         <v>148</v>
@@ -41911,7 +41853,7 @@
         <v>45</v>
       </c>
       <c r="J259" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K259" s="5">
         <v>-9.96632996632996</v>
@@ -41934,7 +41876,7 @@
         <v>145</v>
       </c>
       <c r="E260" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F260" t="s">
         <v>149</v>
@@ -41946,7 +41888,7 @@
         <v>45</v>
       </c>
       <c r="J260" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K260" s="5">
         <v>-3.7037037037037002</v>
@@ -41969,7 +41911,7 @@
         <v>145</v>
       </c>
       <c r="E261" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F261" t="s">
         <v>150</v>
@@ -42051,7 +41993,7 @@
         <v>43</v>
       </c>
       <c r="J263" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K263" s="5">
         <v>-7.4747474747474696</v>
@@ -42086,7 +42028,7 @@
         <v>43</v>
       </c>
       <c r="J264" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K264" s="5">
         <v>-11.649831649831601</v>
@@ -42191,7 +42133,7 @@
         <v>44</v>
       </c>
       <c r="J267" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K267" s="5">
         <v>-7.87878787878787</v>
@@ -42226,7 +42168,7 @@
         <v>45</v>
       </c>
       <c r="J268" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K268" s="5">
         <v>-5.9932659932659904</v>
@@ -42331,7 +42273,7 @@
         <v>43</v>
       </c>
       <c r="J271" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K271" s="5">
         <v>-5.0961538461538396</v>
@@ -42366,7 +42308,7 @@
         <v>43</v>
       </c>
       <c r="J272" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K272" s="5">
         <v>-3.9423076923076898</v>
@@ -42471,7 +42413,7 @@
         <v>45</v>
       </c>
       <c r="J275" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K275" s="5">
         <v>-12.019230769230701</v>
@@ -42491,7 +42433,7 @@
         <v>136</v>
       </c>
       <c r="D276" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E276" t="s">
         <v>34</v>
@@ -42506,7 +42448,7 @@
         <v>43</v>
       </c>
       <c r="J276" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K276" s="5">
         <v>-7.6923076923076898</v>
@@ -42526,7 +42468,7 @@
         <v>136</v>
       </c>
       <c r="D277" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E277" t="s">
         <v>33</v>
@@ -42561,7 +42503,7 @@
         <v>136</v>
       </c>
       <c r="D278" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E278" t="s">
         <v>35</v>
@@ -42596,7 +42538,7 @@
         <v>136</v>
       </c>
       <c r="D279" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E279" t="s">
         <v>36</v>
@@ -42611,7 +42553,7 @@
         <v>43</v>
       </c>
       <c r="J279" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K279" s="5">
         <v>-7.1153846153846203</v>
@@ -42631,7 +42573,7 @@
         <v>136</v>
       </c>
       <c r="D280" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E280" t="s">
         <v>35</v>
@@ -42646,7 +42588,7 @@
         <v>44</v>
       </c>
       <c r="J280" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K280" s="5">
         <v>-3.9423076923076898</v>
@@ -42666,7 +42608,7 @@
         <v>136</v>
       </c>
       <c r="D281" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E281" t="s">
         <v>34</v>
@@ -42701,7 +42643,7 @@
         <v>136</v>
       </c>
       <c r="D282" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E282" t="s">
         <v>35</v>
@@ -42736,7 +42678,7 @@
         <v>136</v>
       </c>
       <c r="D283" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E283" t="s">
         <v>36</v>
@@ -42751,7 +42693,7 @@
         <v>45</v>
       </c>
       <c r="J283" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K283" s="5">
         <v>-16.923076923076898</v>
@@ -42786,7 +42728,7 @@
         <v>43</v>
       </c>
       <c r="J284" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K284" s="5">
         <v>-15.769230769230701</v>
@@ -42891,7 +42833,7 @@
         <v>43</v>
       </c>
       <c r="J287" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K287" s="5">
         <v>-7.6923076923076898</v>
@@ -42926,7 +42868,7 @@
         <v>44</v>
       </c>
       <c r="J288" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K288" s="5">
         <v>-7.9807692307692299</v>
@@ -43031,7 +42973,7 @@
         <v>45</v>
       </c>
       <c r="J291" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K291" s="5">
         <v>-9.7115384615384599</v>
@@ -43066,7 +43008,7 @@
         <v>45</v>
       </c>
       <c r="J292" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K292" s="5">
         <v>-4.8076923076923102</v>
@@ -43171,7 +43113,7 @@
         <v>43</v>
       </c>
       <c r="J295" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K295" s="5">
         <v>-10.288461538461499</v>
@@ -43206,7 +43148,7 @@
         <v>43</v>
       </c>
       <c r="J296" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K296" s="5">
         <v>-14.615384615384601</v>
@@ -43311,7 +43253,7 @@
         <v>44</v>
       </c>
       <c r="J299" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K299" s="5">
         <v>-7.4038461538461497</v>
@@ -43346,7 +43288,7 @@
         <v>44</v>
       </c>
       <c r="J300" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K300" s="5">
         <v>-8.5576923076923102</v>
@@ -43451,7 +43393,7 @@
         <v>45</v>
       </c>
       <c r="J303" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K303" s="5">
         <v>-8.8461538461538503</v>
@@ -43486,7 +43428,7 @@
         <v>45</v>
       </c>
       <c r="J304" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K304" s="5">
         <v>-6.8269230769230802</v>
@@ -43592,7 +43534,7 @@
       </c>
       <c r="I307" s="8"/>
       <c r="J307" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K307" s="5">
         <v>-12.307692307692299</v>
@@ -43628,7 +43570,7 @@
       </c>
       <c r="I308" s="8"/>
       <c r="J308" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K308" s="5">
         <v>-9.4230769230769198</v>
@@ -43736,7 +43678,7 @@
       </c>
       <c r="I311" s="8"/>
       <c r="J311" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K311" s="5">
         <v>-12.019230769230701</v>
@@ -43772,7 +43714,7 @@
       </c>
       <c r="I312" s="8"/>
       <c r="J312" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K312" s="5">
         <v>-7.9807692307692299</v>
@@ -43880,7 +43822,7 @@
       </c>
       <c r="I315" s="8"/>
       <c r="J315" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K315" s="5">
         <v>-9.1346153846153797</v>
@@ -43916,7 +43858,7 @@
       </c>
       <c r="I316" s="8"/>
       <c r="J316" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K316" s="5">
         <v>-19.807692307692299</v>
@@ -44021,7 +43963,7 @@
         <v>43</v>
       </c>
       <c r="J319" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K319" s="5">
         <v>-6.5384615384615401</v>
@@ -44056,7 +43998,7 @@
         <v>43</v>
       </c>
       <c r="J320" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K320" s="5">
         <v>-6.8269230769230802</v>
@@ -44161,7 +44103,7 @@
         <v>44</v>
       </c>
       <c r="J323" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K323" s="5">
         <v>-8.2692307692307701</v>
@@ -44196,7 +44138,7 @@
         <v>44</v>
       </c>
       <c r="J324" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K324" s="5">
         <v>-8.2692307692307701</v>
@@ -44301,7 +44243,7 @@
         <v>45</v>
       </c>
       <c r="J327" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K327" s="5">
         <v>-8.2692307692307701</v>
@@ -44328,7 +44270,7 @@
       </c>
       <c r="F328"/>
       <c r="J328" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K328" s="5">
         <v>12.3</v>
@@ -44355,7 +44297,7 @@
       </c>
       <c r="F329"/>
       <c r="J329" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K329" s="5">
         <v>7.2</v>
@@ -44382,7 +44324,7 @@
       </c>
       <c r="F330"/>
       <c r="J330" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K330" s="5">
         <v>5.5</v>
@@ -44417,7 +44359,7 @@
         <v>43</v>
       </c>
       <c r="J331" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K331" s="5">
         <v>15.156950672645699</v>
@@ -44452,7 +44394,7 @@
         <v>43</v>
       </c>
       <c r="J332" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K332" s="5">
         <v>5.65022421524663</v>
@@ -44487,7 +44429,7 @@
         <v>43</v>
       </c>
       <c r="J333" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K333" s="5">
         <v>5.65022421524663</v>
@@ -44522,7 +44464,7 @@
         <v>43</v>
       </c>
       <c r="J334" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K334" s="5">
         <v>-21.076233183856498</v>
@@ -44557,7 +44499,7 @@
         <v>43</v>
       </c>
       <c r="J335" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K335" s="5">
         <v>-21.076233183856498</v>
@@ -44592,7 +44534,7 @@
         <v>43</v>
       </c>
       <c r="J336" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K336" s="5">
         <v>-21.076233183856498</v>
@@ -44627,7 +44569,7 @@
         <v>44</v>
       </c>
       <c r="J337" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K337" s="5">
         <v>12.825112107623299</v>
@@ -44662,7 +44604,7 @@
         <v>44</v>
       </c>
       <c r="J338" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K338" s="5">
         <v>8.3408071748878907</v>
@@ -44697,7 +44639,7 @@
         <v>44</v>
       </c>
       <c r="J339" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K339" s="5">
         <v>6.18834080717488</v>
@@ -44732,7 +44674,7 @@
         <v>44</v>
       </c>
       <c r="J340" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K340" s="5">
         <v>3.3183856502242102</v>
@@ -44767,7 +44709,7 @@
         <v>45</v>
       </c>
       <c r="J341" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K341" s="5">
         <v>8.6995515695067205</v>
@@ -44802,7 +44744,7 @@
         <v>45</v>
       </c>
       <c r="J342" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K342" s="5">
         <v>7.26457399103138</v>
@@ -44837,7 +44779,7 @@
         <v>45</v>
       </c>
       <c r="J343" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K343" s="5">
         <v>4.57399103139013</v>
@@ -44872,7 +44814,7 @@
         <v>45</v>
       </c>
       <c r="J344" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K344" s="5">
         <v>-2.9596412556053799</v>
@@ -44907,7 +44849,7 @@
         <v>45</v>
       </c>
       <c r="J345" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K345" s="5">
         <v>-2.9596412556053799</v>
@@ -44942,7 +44884,7 @@
         <v>45</v>
       </c>
       <c r="J346" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K346" s="5">
         <v>-2.9596412556053799</v>
@@ -44977,7 +44919,7 @@
         <v>43</v>
       </c>
       <c r="J347" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K347" s="5">
         <v>8.6995515695067205</v>
@@ -45012,7 +44954,7 @@
         <v>43</v>
       </c>
       <c r="J348" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K348" s="5">
         <v>18.923766816143399</v>
@@ -45047,7 +44989,7 @@
         <v>43</v>
       </c>
       <c r="J349" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K349" s="5">
         <v>29.686098654708498</v>
@@ -45082,7 +45024,7 @@
         <v>43</v>
       </c>
       <c r="J350" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K350" s="5">
         <v>12.6457399103139</v>
@@ -45117,7 +45059,7 @@
         <v>44</v>
       </c>
       <c r="J351" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K351" s="5">
         <v>10.134529147982001</v>
@@ -45152,7 +45094,7 @@
         <v>45</v>
       </c>
       <c r="J352" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K352" s="5">
         <v>2.2421524663677102</v>
@@ -45187,7 +45129,7 @@
         <v>43</v>
       </c>
       <c r="J353" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K353" s="5">
         <v>1.1659192825111999</v>
@@ -45222,7 +45164,7 @@
         <v>43</v>
       </c>
       <c r="J354" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K354" s="5">
         <v>3.8565022421524602</v>
@@ -45257,7 +45199,7 @@
         <v>43</v>
       </c>
       <c r="J355" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K355" s="5">
         <v>16.412556053811599</v>
@@ -45292,7 +45234,7 @@
         <v>44</v>
       </c>
       <c r="J356" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K356" s="5">
         <v>13.901345291479799</v>
@@ -45327,7 +45269,7 @@
         <v>44</v>
       </c>
       <c r="J357" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K357" s="5">
         <v>3.4977578475336299</v>
@@ -45362,7 +45304,7 @@
         <v>44</v>
       </c>
       <c r="J358" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K358" s="5">
         <v>10.134529147982001</v>
@@ -45397,7 +45339,7 @@
         <v>45</v>
       </c>
       <c r="J359" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K359" s="5">
         <v>7.4439461883408002</v>
@@ -45432,7 +45374,7 @@
         <v>45</v>
       </c>
       <c r="J360" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K360" s="5">
         <v>2.7802690582959602</v>
@@ -45467,7 +45409,7 @@
         <v>43</v>
       </c>
       <c r="J361" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K361" s="5">
         <v>4.2222222222222197</v>
@@ -45502,7 +45444,7 @@
         <v>43</v>
       </c>
       <c r="J362" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K362" s="5">
         <v>15.422222222222199</v>
@@ -45537,7 +45479,7 @@
         <v>44</v>
       </c>
       <c r="J363" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K363" s="5">
         <v>6</v>
@@ -45560,10 +45502,10 @@
         <v>53</v>
       </c>
       <c r="E364" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F364" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G364" t="s">
         <v>42</v>
@@ -45572,7 +45514,7 @@
         <v>44</v>
       </c>
       <c r="J364" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K364" s="5">
         <v>9.0222222222222204</v>
@@ -45607,7 +45549,7 @@
         <v>44</v>
       </c>
       <c r="J365" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K365" s="5">
         <v>7.7777777777777697</v>
@@ -45630,7 +45572,7 @@
         <v>53</v>
       </c>
       <c r="E366" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F366" t="s">
         <v>155</v>
@@ -45642,7 +45584,7 @@
         <v>45</v>
       </c>
       <c r="J366" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K366" s="5">
         <v>2.2666666666666599</v>
@@ -45662,7 +45604,7 @@
         <v>137</v>
       </c>
       <c r="D367" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E367" t="s">
         <v>33</v>
@@ -45677,7 +45619,7 @@
         <v>43</v>
       </c>
       <c r="J367" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K367" s="5">
         <v>25.733333333333299</v>
@@ -45697,7 +45639,7 @@
         <v>137</v>
       </c>
       <c r="D368" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E368" t="s">
         <v>35</v>
@@ -45712,7 +45654,7 @@
         <v>43</v>
       </c>
       <c r="J368" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K368" s="5">
         <v>12.9333333333333</v>
@@ -45732,7 +45674,7 @@
         <v>137</v>
       </c>
       <c r="D369" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E369" t="s">
         <v>36</v>
@@ -45747,7 +45689,7 @@
         <v>43</v>
       </c>
       <c r="J369" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K369" s="5">
         <v>23.955555555555499</v>
@@ -45767,7 +45709,7 @@
         <v>137</v>
       </c>
       <c r="D370" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E370" t="s">
         <v>34</v>
@@ -45782,7 +45724,7 @@
         <v>45</v>
       </c>
       <c r="J370" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K370" s="5">
         <v>-3.24444444444444</v>
@@ -45802,7 +45744,7 @@
         <v>137</v>
       </c>
       <c r="D371" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E371" t="s">
         <v>35</v>
@@ -45817,7 +45759,7 @@
         <v>45</v>
       </c>
       <c r="J371" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K371" s="5">
         <v>5.4666666666666597</v>
@@ -45852,7 +45794,7 @@
         <v>43</v>
       </c>
       <c r="J372" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K372" s="5">
         <v>5.4666666666666597</v>
@@ -45887,7 +45829,7 @@
         <v>43</v>
       </c>
       <c r="J373" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K373" s="5">
         <v>10.9777777777777</v>
@@ -45922,7 +45864,7 @@
         <v>43</v>
       </c>
       <c r="J374" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K374" s="5">
         <v>12.9333333333333</v>
@@ -45957,7 +45899,7 @@
         <v>44</v>
       </c>
       <c r="J375" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K375" s="5">
         <v>1.0222222222222199</v>
@@ -45992,7 +45934,7 @@
         <v>45</v>
       </c>
       <c r="J376" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K376" s="5">
         <v>2.2666666666666599</v>
@@ -46027,7 +45969,7 @@
         <v>45</v>
       </c>
       <c r="J377" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K377" s="5">
         <v>8.1333333333333293</v>
@@ -46062,7 +46004,7 @@
         <v>43</v>
       </c>
       <c r="J378" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K378" s="5">
         <v>13.1111111111111</v>
@@ -46097,7 +46039,7 @@
         <v>43</v>
       </c>
       <c r="J379" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K379" s="5">
         <v>19.688888888888801</v>
@@ -46132,7 +46074,7 @@
         <v>43</v>
       </c>
       <c r="J380" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K380" s="5">
         <v>5.8222222222222202</v>
@@ -46167,7 +46109,7 @@
         <v>43</v>
       </c>
       <c r="J381" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K381" s="5">
         <v>21.288888888888799</v>
@@ -46202,7 +46144,7 @@
         <v>44</v>
       </c>
       <c r="J382" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K382" s="5">
         <v>-2.3555555555555499</v>
@@ -46237,7 +46179,7 @@
         <v>44</v>
       </c>
       <c r="J383" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K383" s="5">
         <v>9.7333333333333307</v>
@@ -46272,7 +46214,7 @@
         <v>44</v>
       </c>
       <c r="J384" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K384" s="5">
         <v>5.1111111111111098</v>
@@ -46307,7 +46249,7 @@
         <v>45</v>
       </c>
       <c r="J385" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K385" s="5">
         <v>2.4444444444444402</v>
@@ -46342,7 +46284,7 @@
         <v>45</v>
       </c>
       <c r="J386" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K386" s="5">
         <v>6.5333333333333297</v>
@@ -46378,7 +46320,7 @@
       </c>
       <c r="I387" s="8"/>
       <c r="J387" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K387" s="5">
         <v>12.7555555555555</v>
@@ -46414,7 +46356,7 @@
       </c>
       <c r="I388" s="8"/>
       <c r="J388" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K388" s="5">
         <v>22.711111111111101</v>
@@ -46450,7 +46392,7 @@
       </c>
       <c r="I389" s="8"/>
       <c r="J389" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K389" s="5">
         <v>29.288888888888799</v>
@@ -46486,7 +46428,7 @@
       </c>
       <c r="I390" s="8"/>
       <c r="J390" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K390" s="5">
         <v>9.0222222222222204</v>
@@ -46522,7 +46464,7 @@
       </c>
       <c r="I391" s="8"/>
       <c r="J391" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K391" s="5">
         <v>3.68888888888889</v>
@@ -46558,7 +46500,7 @@
       </c>
       <c r="I392" s="8"/>
       <c r="J392" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K392" s="5">
         <v>-3.24444444444444</v>
@@ -46593,7 +46535,7 @@
         <v>43</v>
       </c>
       <c r="J393" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K393" s="5">
         <v>4.2222222222222197</v>
@@ -46628,7 +46570,7 @@
         <v>43</v>
       </c>
       <c r="J394" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K394" s="5">
         <v>29.822222222222202</v>
@@ -46663,7 +46605,7 @@
         <v>43</v>
       </c>
       <c r="J395" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K395" s="5">
         <v>10.9777777777777</v>
@@ -46698,7 +46640,7 @@
         <v>43</v>
       </c>
       <c r="J396" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K396" s="5">
         <v>13.6444444444444</v>
@@ -46733,7 +46675,7 @@
         <v>44</v>
       </c>
       <c r="J397" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K397" s="5">
         <v>8.8444444444444397</v>
@@ -46768,7 +46710,7 @@
         <v>44</v>
       </c>
       <c r="J398" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K398" s="5">
         <v>4.7555555555555502</v>
@@ -46803,7 +46745,7 @@
         <v>44</v>
       </c>
       <c r="J399" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K399" s="5">
         <v>7.6</v>
@@ -46838,7 +46780,7 @@
         <v>44</v>
       </c>
       <c r="J400" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K400" s="5">
         <v>6</v>
@@ -46873,7 +46815,7 @@
         <v>45</v>
       </c>
       <c r="J401" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K401" s="5">
         <v>9.0222222222222204</v>
@@ -46908,7 +46850,7 @@
         <v>45</v>
       </c>
       <c r="J402" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K402" s="5">
         <v>4.0444444444444398</v>
@@ -46943,7 +46885,7 @@
         <v>45</v>
       </c>
       <c r="J403" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K403" s="5">
         <v>2.2666666666666599</v>
@@ -47539,7 +47481,7 @@
         <v>36</v>
       </c>
       <c r="F425" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K425" s="8">
         <v>10.6199460916442</v>
@@ -47568,7 +47510,7 @@
         <v>35</v>
       </c>
       <c r="F426" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K426" s="8">
         <v>10.6199460916442</v>
@@ -47626,7 +47568,7 @@
         <v>33</v>
       </c>
       <c r="F428" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K428" s="8">
         <v>9.8113207547169807</v>
@@ -47655,7 +47597,7 @@
         <v>34</v>
       </c>
       <c r="F429" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K429" s="8">
         <v>9.8113207547169807</v>
@@ -48743,7 +48685,7 @@
         <v>91</v>
       </c>
       <c r="F470" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K470" s="5">
         <v>14.833702882483299</v>
@@ -48769,7 +48711,7 @@
         <v>91</v>
       </c>
       <c r="F471" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K471" s="5">
         <v>16.829268292682901</v>
@@ -48795,7 +48737,7 @@
         <v>91</v>
       </c>
       <c r="F472" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K472" s="5">
         <v>13.237250554323699</v>
@@ -48821,7 +48763,7 @@
         <v>91</v>
       </c>
       <c r="F473" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K473" s="5">
         <v>7.9157427937915701</v>
@@ -48847,7 +48789,7 @@
         <v>91</v>
       </c>
       <c r="F474" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K474" s="5">
         <v>6.1197339246119702</v>
@@ -49306,7 +49248,7 @@
         <v>91</v>
       </c>
       <c r="F492" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K492" s="5">
         <v>45.232815964523198</v>
@@ -49332,7 +49274,7 @@
         <v>91</v>
       </c>
       <c r="F493" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K493" s="5">
         <v>45.232815964523198</v>
@@ -49358,7 +49300,7 @@
         <v>91</v>
       </c>
       <c r="F494" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K494" s="5">
         <v>34.146341463414601</v>
@@ -49384,7 +49326,7 @@
         <v>91</v>
       </c>
       <c r="F495" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K495" s="5">
         <v>26.829268292682901</v>
@@ -49410,7 +49352,7 @@
         <v>91</v>
       </c>
       <c r="F496" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K496" s="5">
         <v>12.6385809312638</v>
@@ -49550,494 +49492,6 @@
       </c>
       <c r="M501" s="8">
         <v>125</v>
-      </c>
-    </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A508" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="510" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A510" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B510" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C510" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D510" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E510" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F510" s="20"/>
-      <c r="K510" s="18">
-        <v>10</v>
-      </c>
-      <c r="L510" s="7">
-        <v>4.0915515659483557</v>
-      </c>
-      <c r="M510" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="511" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A511" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B511" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C511" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D511" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E511" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F511" s="20"/>
-      <c r="K511" s="18">
-        <v>7</v>
-      </c>
-      <c r="L511" s="7">
-        <v>3.1058595977880632</v>
-      </c>
-      <c r="M511" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="512" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A512" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B512" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C512" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D512" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E512" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F512" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K512" s="18">
-        <v>10</v>
-      </c>
-      <c r="L512" s="7">
-        <v>3.8869739876509355</v>
-      </c>
-      <c r="M512" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="513" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A513" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B513" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C513" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D513" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E513" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F513" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K513" s="18">
-        <v>10</v>
-      </c>
-      <c r="L513" s="7">
-        <v>3.8869739876509355</v>
-      </c>
-      <c r="M513" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="514" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A514" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B514" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C514" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D514" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E514" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F514" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K514" s="18">
-        <v>10</v>
-      </c>
-      <c r="L514" s="7">
-        <v>3.8869739876509355</v>
-      </c>
-      <c r="M514" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="515" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A515" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B515" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C515" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D515" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E515" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F515" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K515" s="18">
-        <v>10</v>
-      </c>
-      <c r="L515" s="7">
-        <v>3.2732412527586967</v>
-      </c>
-      <c r="M515" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="516" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A516" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B516" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C516" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D516" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E516" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F516" s="20"/>
-      <c r="K516" s="18">
-        <v>8</v>
-      </c>
-      <c r="L516" s="7">
-        <v>2.8826840578272548</v>
-      </c>
-      <c r="M516" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="517" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A517" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B517" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C517" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D517" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E517" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F517" s="20"/>
-      <c r="K517" s="18">
-        <v>11</v>
-      </c>
-      <c r="L517" s="7">
-        <v>3.5522106777097195</v>
-      </c>
-      <c r="M517" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="518" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A518" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B518" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C518" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D518" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E518" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F518" s="20"/>
-      <c r="K518" s="18">
-        <v>6</v>
-      </c>
-      <c r="L518" s="7">
-        <v>4.3333250675725736</v>
-      </c>
-      <c r="M518" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="519" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A519" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B519" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C519" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D519" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E519" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F519" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K519" s="18">
-        <v>17</v>
-      </c>
-      <c r="L519" s="7">
-        <v>3.3290351377489031</v>
-      </c>
-      <c r="M519" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="520" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A520" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B520" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C520" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D520" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E520" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F520" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K520" s="18">
-        <v>7</v>
-      </c>
-      <c r="L520" s="7">
-        <v>10.080095221563699</v>
-      </c>
-      <c r="M520" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="521" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A521" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B521" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C521" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D521" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E521" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F521" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K521" s="18">
-        <v>3</v>
-      </c>
-      <c r="L521" s="7">
-        <v>3.0686636744612752</v>
-      </c>
-      <c r="M521" s="7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="522" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A522" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B522" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C522" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D522" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E522" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F522" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K522" s="18">
-        <v>5</v>
-      </c>
-      <c r="L522" s="7">
-        <v>2.8454881345004548</v>
-      </c>
-      <c r="M522" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="523" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A523" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B523" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C523" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D523" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E523" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F523" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K523" s="18">
-        <v>17</v>
-      </c>
-      <c r="L523" s="7">
-        <v>3.1244575594515052</v>
-      </c>
-      <c r="M523" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="524" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A524" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B524" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C524" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D524" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E524" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F524" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K524" s="18">
-        <v>17</v>
-      </c>
-      <c r="L524" s="7">
-        <v>3.1244575594515052</v>
-      </c>
-      <c r="M524" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="525" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A525" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B525" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C525" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D525" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E525" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F525" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K525" s="18">
-        <v>17</v>
-      </c>
-      <c r="L525" s="7">
-        <v>3.1244575594515052</v>
-      </c>
-      <c r="M525" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="526" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A526" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B526" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C526" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D526" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E526" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F526" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K526" s="18">
-        <v>17</v>
-      </c>
-      <c r="L526" s="7">
-        <v>3.1244575594515052</v>
-      </c>
-      <c r="M526" s="7">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_model/meta_model_R_copy1.xlsx
+++ b/data/meta_model/meta_model_R_copy1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d378ff900cd0a488/Wageningen/Master thesis/R Studio/msc_beeke/data/meta_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{E35EF706-6D1C-45D8-8A81-D8A6EFAF874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605FE814-50E4-40CF-9583-49F377A38EB2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{E35EF706-6D1C-45D8-8A81-D8A6EFAF874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F4E2340-5AAA-4693-B2FA-D417F6E618DC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{23E2EBDD-BBB4-413F-B5F8-622405BB80ED}"/>
+    <workbookView xWindow="5340" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{23E2EBDD-BBB4-413F-B5F8-622405BB80ED}"/>
   </bookViews>
   <sheets>
     <sheet name="references" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="main" sheetId="6" r:id="rId4"/>
     <sheet name="covariates" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">covariates!$A$1:$N$501</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33154,7 +33157,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33614,11 +33617,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108F44-9AB1-43D9-B41B-7BC1ED64F125}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B505" sqref="B505"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E511" sqref="E511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33677,7 +33681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -33707,7 +33711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -33736,7 +33740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -33765,7 +33769,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -33794,7 +33798,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -33823,7 +33827,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -33852,7 +33856,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -33881,7 +33885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -33910,7 +33914,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -33939,7 +33943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -33968,7 +33972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -33997,7 +34001,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -34026,7 +34030,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -34055,7 +34059,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -34084,7 +34088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -34113,7 +34117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -34142,7 +34146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -34171,7 +34175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -34200,7 +34204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -34229,7 +34233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -34255,7 +34259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -34281,7 +34285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -34423,7 +34427,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -34452,7 +34456,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -34481,7 +34485,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -34510,7 +34514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -34539,7 +34543,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -34568,7 +34572,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -34597,7 +34601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -34626,7 +34630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -34655,7 +34659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -34684,7 +34688,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -34713,7 +34717,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -34742,7 +34746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -34771,7 +34775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -34800,7 +34804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -34829,7 +34833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -34858,7 +34862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -34887,7 +34891,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -34916,7 +34920,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -34945,7 +34949,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -34974,7 +34978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -35003,7 +35007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -35032,7 +35036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -35061,7 +35065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -35090,7 +35094,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -35119,7 +35123,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -35148,7 +35152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -35177,7 +35181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -35206,7 +35210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -35235,7 +35239,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -35264,7 +35268,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -35293,7 +35297,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -35322,7 +35326,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -35351,7 +35355,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -35380,7 +35384,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -35409,7 +35413,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -35438,7 +35442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -35467,7 +35471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -35496,7 +35500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -35525,7 +35529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -35554,7 +35558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -35583,7 +35587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -35612,7 +35616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -35641,7 +35645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -35670,7 +35674,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -35699,7 +35703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -35728,7 +35732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -35754,7 +35758,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -35780,7 +35784,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -35922,7 +35926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -35951,7 +35955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -35980,7 +35984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -36009,7 +36013,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -36038,7 +36042,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -36067,7 +36071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -36096,7 +36100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -36125,7 +36129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -36154,7 +36158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -36183,7 +36187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -36212,7 +36216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -36241,7 +36245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -36270,7 +36274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -36299,7 +36303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -36328,7 +36332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -36357,7 +36361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -36386,7 +36390,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -36415,7 +36419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -36444,7 +36448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -36473,7 +36477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -36502,7 +36506,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -36531,7 +36535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -36560,7 +36564,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -36589,7 +36593,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -36618,7 +36622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -36647,7 +36651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -36676,7 +36680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -36705,7 +36709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -36734,7 +36738,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -36763,7 +36767,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -36792,7 +36796,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -36821,7 +36825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -36850,7 +36854,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -36879,7 +36883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -36908,7 +36912,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -36937,7 +36941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -36966,7 +36970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -36995,7 +36999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -37024,7 +37028,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -37053,7 +37057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -37082,7 +37086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -37111,7 +37115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -37140,7 +37144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -37169,7 +37173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -37198,7 +37202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -37227,7 +37231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -37253,7 +37257,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -37279,7 +37283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -37421,7 +37425,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -37450,7 +37454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -37479,7 +37483,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -37508,7 +37512,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -37537,7 +37541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -37566,7 +37570,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -37595,7 +37599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -37624,7 +37628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -37653,7 +37657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -37682,7 +37686,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -37711,7 +37715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -37740,7 +37744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -37769,7 +37773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -37798,7 +37802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -37827,7 +37831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -37856,7 +37860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -37885,7 +37889,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -37914,7 +37918,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -37943,7 +37947,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -37972,7 +37976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -38001,7 +38005,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -38030,7 +38034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -38059,7 +38063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -38088,7 +38092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -38117,7 +38121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -38146,7 +38150,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -38175,7 +38179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>76</v>
       </c>
@@ -38204,7 +38208,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>76</v>
       </c>
@@ -38239,7 +38243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>76</v>
       </c>
@@ -38274,7 +38278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>76</v>
       </c>
@@ -38309,7 +38313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>76</v>
       </c>
@@ -38344,7 +38348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>76</v>
       </c>
@@ -38379,7 +38383,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>76</v>
       </c>
@@ -38414,7 +38418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>76</v>
       </c>
@@ -38452,7 +38456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>76</v>
       </c>
@@ -38490,7 +38494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>76</v>
       </c>
@@ -38528,7 +38532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>76</v>
       </c>
@@ -38566,7 +38570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>76</v>
       </c>
@@ -38604,7 +38608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>76</v>
       </c>
@@ -38642,7 +38646,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>76</v>
       </c>
@@ -38680,7 +38684,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>76</v>
       </c>
@@ -38718,7 +38722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>76</v>
       </c>
@@ -38756,7 +38760,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>76</v>
       </c>
@@ -38794,7 +38798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>76</v>
       </c>
@@ -38832,7 +38836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>76</v>
       </c>
@@ -38867,7 +38871,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>76</v>
       </c>
@@ -38905,7 +38909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>76</v>
       </c>
@@ -38943,7 +38947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>76</v>
       </c>
@@ -38981,7 +38985,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>76</v>
       </c>
@@ -39019,7 +39023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>76</v>
       </c>
@@ -39057,7 +39061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>76</v>
       </c>
@@ -39095,7 +39099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>76</v>
       </c>
@@ -39133,7 +39137,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>76</v>
       </c>
@@ -39171,7 +39175,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>76</v>
       </c>
@@ -39209,7 +39213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>76</v>
       </c>
@@ -39247,7 +39251,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>76</v>
       </c>
@@ -39285,7 +39289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>76</v>
       </c>
@@ -39323,7 +39327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>76</v>
       </c>
@@ -39361,7 +39365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>76</v>
       </c>
@@ -39399,7 +39403,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>76</v>
       </c>
@@ -39428,7 +39432,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>76</v>
       </c>
@@ -39463,7 +39467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>76</v>
       </c>
@@ -39498,7 +39502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>76</v>
       </c>
@@ -39533,7 +39537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>76</v>
       </c>
@@ -39568,7 +39572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>76</v>
       </c>
@@ -39603,7 +39607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>76</v>
       </c>
@@ -39638,7 +39642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>76</v>
       </c>
@@ -39676,7 +39680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>76</v>
       </c>
@@ -39714,7 +39718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>76</v>
       </c>
@@ -39752,7 +39756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>76</v>
       </c>
@@ -39790,7 +39794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>76</v>
       </c>
@@ -39828,7 +39832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>76</v>
       </c>
@@ -39866,7 +39870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>76</v>
       </c>
@@ -39904,7 +39908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>76</v>
       </c>
@@ -39942,7 +39946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>76</v>
       </c>
@@ -39980,7 +39984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>76</v>
       </c>
@@ -40018,7 +40022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>76</v>
       </c>
@@ -40056,7 +40060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>76</v>
       </c>
@@ -40094,7 +40098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -40129,7 +40133,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>76</v>
       </c>
@@ -40167,7 +40171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>76</v>
       </c>
@@ -40205,7 +40209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>76</v>
       </c>
@@ -40243,7 +40247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>76</v>
       </c>
@@ -40281,7 +40285,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>76</v>
       </c>
@@ -40319,7 +40323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>76</v>
       </c>
@@ -40357,7 +40361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>76</v>
       </c>
@@ -40395,7 +40399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>76</v>
       </c>
@@ -40433,7 +40437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>76</v>
       </c>
@@ -40471,7 +40475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>76</v>
       </c>
@@ -40509,7 +40513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>76</v>
       </c>
@@ -40547,7 +40551,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>76</v>
       </c>
@@ -40585,7 +40589,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>76</v>
       </c>
@@ -40623,7 +40627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>76</v>
       </c>
@@ -40661,7 +40665,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>76</v>
       </c>
@@ -40699,7 +40703,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>143</v>
       </c>
@@ -40728,7 +40732,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>143</v>
       </c>
@@ -40754,7 +40758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>143</v>
       </c>
@@ -40780,7 +40784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>143</v>
       </c>
@@ -40815,7 +40819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>143</v>
       </c>
@@ -40850,7 +40854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>143</v>
       </c>
@@ -40885,7 +40889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>143</v>
       </c>
@@ -40920,7 +40924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>143</v>
       </c>
@@ -40955,7 +40959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>143</v>
       </c>
@@ -40990,7 +40994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>143</v>
       </c>
@@ -41025,7 +41029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>143</v>
       </c>
@@ -41060,7 +41064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>143</v>
       </c>
@@ -41095,7 +41099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>143</v>
       </c>
@@ -41130,7 +41134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>143</v>
       </c>
@@ -41165,7 +41169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>143</v>
       </c>
@@ -41200,7 +41204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>143</v>
       </c>
@@ -41235,7 +41239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>143</v>
       </c>
@@ -41270,7 +41274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>143</v>
       </c>
@@ -41305,7 +41309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>143</v>
       </c>
@@ -41340,7 +41344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>143</v>
       </c>
@@ -41375,7 +41379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>143</v>
       </c>
@@ -41410,7 +41414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>143</v>
       </c>
@@ -41445,7 +41449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>143</v>
       </c>
@@ -41480,7 +41484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>143</v>
       </c>
@@ -41515,7 +41519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>143</v>
       </c>
@@ -41550,7 +41554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>143</v>
       </c>
@@ -41585,7 +41589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>143</v>
       </c>
@@ -41620,7 +41624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>143</v>
       </c>
@@ -41655,7 +41659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>143</v>
       </c>
@@ -41690,7 +41694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>143</v>
       </c>
@@ -41725,7 +41729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>143</v>
       </c>
@@ -41760,7 +41764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>143</v>
       </c>
@@ -41795,7 +41799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>143</v>
       </c>
@@ -41830,7 +41834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>143</v>
       </c>
@@ -41865,7 +41869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>143</v>
       </c>
@@ -41900,7 +41904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>143</v>
       </c>
@@ -41935,7 +41939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>143</v>
       </c>
@@ -41970,7 +41974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>143</v>
       </c>
@@ -42005,7 +42009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>143</v>
       </c>
@@ -42040,7 +42044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>143</v>
       </c>
@@ -42075,7 +42079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>143</v>
       </c>
@@ -42110,7 +42114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>143</v>
       </c>
@@ -42145,7 +42149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>143</v>
       </c>
@@ -42180,7 +42184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>143</v>
       </c>
@@ -42215,7 +42219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>143</v>
       </c>
@@ -42250,7 +42254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>143</v>
       </c>
@@ -42285,7 +42289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>143</v>
       </c>
@@ -42320,7 +42324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>143</v>
       </c>
@@ -42355,7 +42359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>143</v>
       </c>
@@ -42390,7 +42394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>143</v>
       </c>
@@ -42425,7 +42429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>143</v>
       </c>
@@ -42460,7 +42464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>143</v>
       </c>
@@ -42495,7 +42499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>143</v>
       </c>
@@ -42530,7 +42534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>143</v>
       </c>
@@ -42565,7 +42569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>143</v>
       </c>
@@ -42600,7 +42604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>143</v>
       </c>
@@ -42635,7 +42639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>143</v>
       </c>
@@ -42670,7 +42674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>143</v>
       </c>
@@ -42705,7 +42709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>143</v>
       </c>
@@ -42740,7 +42744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>143</v>
       </c>
@@ -42775,7 +42779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>143</v>
       </c>
@@ -42810,7 +42814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>143</v>
       </c>
@@ -42845,7 +42849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>143</v>
       </c>
@@ -42880,7 +42884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>143</v>
       </c>
@@ -42915,7 +42919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>143</v>
       </c>
@@ -42950,7 +42954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>143</v>
       </c>
@@ -42985,7 +42989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>143</v>
       </c>
@@ -43020,7 +43024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>143</v>
       </c>
@@ -43055,7 +43059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>143</v>
       </c>
@@ -43090,7 +43094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>143</v>
       </c>
@@ -43125,7 +43129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>143</v>
       </c>
@@ -43160,7 +43164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>143</v>
       </c>
@@ -43195,7 +43199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>143</v>
       </c>
@@ -43230,7 +43234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>143</v>
       </c>
@@ -43265,7 +43269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>143</v>
       </c>
@@ -43300,7 +43304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>143</v>
       </c>
@@ -43335,7 +43339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>143</v>
       </c>
@@ -43370,7 +43374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>143</v>
       </c>
@@ -43405,7 +43409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>143</v>
       </c>
@@ -43440,7 +43444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>143</v>
       </c>
@@ -43475,7 +43479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>143</v>
       </c>
@@ -43510,7 +43514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>143</v>
       </c>
@@ -43546,7 +43550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>143</v>
       </c>
@@ -43582,7 +43586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>143</v>
       </c>
@@ -43618,7 +43622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>143</v>
       </c>
@@ -43654,7 +43658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>143</v>
       </c>
@@ -43690,7 +43694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>143</v>
       </c>
@@ -43726,7 +43730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>143</v>
       </c>
@@ -43762,7 +43766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>143</v>
       </c>
@@ -43798,7 +43802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>143</v>
       </c>
@@ -43834,7 +43838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>143</v>
       </c>
@@ -43870,7 +43874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>143</v>
       </c>
@@ -43905,7 +43909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>143</v>
       </c>
@@ -43940,7 +43944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>143</v>
       </c>
@@ -43975,7 +43979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>143</v>
       </c>
@@ -44010,7 +44014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>143</v>
       </c>
@@ -44045,7 +44049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>143</v>
       </c>
@@ -44080,7 +44084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>143</v>
       </c>
@@ -44115,7 +44119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>143</v>
       </c>
@@ -44150,7 +44154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>143</v>
       </c>
@@ -44185,7 +44189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>143</v>
       </c>
@@ -44220,7 +44224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>143</v>
       </c>
@@ -44255,7 +44259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>143</v>
       </c>
@@ -44282,7 +44286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>143</v>
       </c>
@@ -44309,7 +44313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>143</v>
       </c>
@@ -44336,7 +44340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>143</v>
       </c>
@@ -44371,7 +44375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>143</v>
       </c>
@@ -44406,7 +44410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>143</v>
       </c>
@@ -44441,7 +44445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>143</v>
       </c>
@@ -44476,7 +44480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>143</v>
       </c>
@@ -44511,7 +44515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>143</v>
       </c>
@@ -44546,7 +44550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>143</v>
       </c>
@@ -44581,7 +44585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>143</v>
       </c>
@@ -44616,7 +44620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>143</v>
       </c>
@@ -44651,7 +44655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>143</v>
       </c>
@@ -44686,7 +44690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>143</v>
       </c>
@@ -44721,7 +44725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>143</v>
       </c>
@@ -44756,7 +44760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>143</v>
       </c>
@@ -44791,7 +44795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>143</v>
       </c>
@@ -44826,7 +44830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>143</v>
       </c>
@@ -44861,7 +44865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>143</v>
       </c>
@@ -44896,7 +44900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>143</v>
       </c>
@@ -44931,7 +44935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>143</v>
       </c>
@@ -44966,7 +44970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>143</v>
       </c>
@@ -45001,7 +45005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>143</v>
       </c>
@@ -45036,7 +45040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>143</v>
       </c>
@@ -45071,7 +45075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>143</v>
       </c>
@@ -45106,7 +45110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>143</v>
       </c>
@@ -45141,7 +45145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>143</v>
       </c>
@@ -45176,7 +45180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>143</v>
       </c>
@@ -45211,7 +45215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>143</v>
       </c>
@@ -45246,7 +45250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>143</v>
       </c>
@@ -45281,7 +45285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>143</v>
       </c>
@@ -45316,7 +45320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>143</v>
       </c>
@@ -45351,7 +45355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>143</v>
       </c>
@@ -45386,7 +45390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>143</v>
       </c>
@@ -45421,7 +45425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>143</v>
       </c>
@@ -45456,7 +45460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>143</v>
       </c>
@@ -45491,7 +45495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>143</v>
       </c>
@@ -45526,7 +45530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>143</v>
       </c>
@@ -45561,7 +45565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>143</v>
       </c>
@@ -45596,7 +45600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>143</v>
       </c>
@@ -45631,7 +45635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>143</v>
       </c>
@@ -45666,7 +45670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>143</v>
       </c>
@@ -45701,7 +45705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>143</v>
       </c>
@@ -45736,7 +45740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>143</v>
       </c>
@@ -45771,7 +45775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>143</v>
       </c>
@@ -45806,7 +45810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>143</v>
       </c>
@@ -45841,7 +45845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>143</v>
       </c>
@@ -45876,7 +45880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>143</v>
       </c>
@@ -45911,7 +45915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>143</v>
       </c>
@@ -45946,7 +45950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>143</v>
       </c>
@@ -45981,7 +45985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>143</v>
       </c>
@@ -46016,7 +46020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>143</v>
       </c>
@@ -46051,7 +46055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>143</v>
       </c>
@@ -46086,7 +46090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>143</v>
       </c>
@@ -46121,7 +46125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>143</v>
       </c>
@@ -46156,7 +46160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>143</v>
       </c>
@@ -46191,7 +46195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>143</v>
       </c>
@@ -46226,7 +46230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>143</v>
       </c>
@@ -46261,7 +46265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>143</v>
       </c>
@@ -46296,7 +46300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>143</v>
       </c>
@@ -46332,7 +46336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>143</v>
       </c>
@@ -46368,7 +46372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>143</v>
       </c>
@@ -46404,7 +46408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>143</v>
       </c>
@@ -46440,7 +46444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>143</v>
       </c>
@@ -46476,7 +46480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>143</v>
       </c>
@@ -46512,7 +46516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>143</v>
       </c>
@@ -46547,7 +46551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>143</v>
       </c>
@@ -46582,7 +46586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>143</v>
       </c>
@@ -46617,7 +46621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>143</v>
       </c>
@@ -46652,7 +46656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>143</v>
       </c>
@@ -46687,7 +46691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>143</v>
       </c>
@@ -46722,7 +46726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>143</v>
       </c>
@@ -46757,7 +46761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>143</v>
       </c>
@@ -46792,7 +46796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>143</v>
       </c>
@@ -46827,7 +46831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>143</v>
       </c>
@@ -46862,7 +46866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>143</v>
       </c>
@@ -46897,7 +46901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>183</v>
       </c>
@@ -46923,7 +46927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>183</v>
       </c>
@@ -46949,7 +46953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>183</v>
       </c>
@@ -46975,7 +46979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>183</v>
       </c>
@@ -47001,7 +47005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>183</v>
       </c>
@@ -47027,7 +47031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>183</v>
       </c>
@@ -47053,7 +47057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>183</v>
       </c>
@@ -47079,7 +47083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>183</v>
       </c>
@@ -47105,7 +47109,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>183</v>
       </c>
@@ -47131,7 +47135,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>183</v>
       </c>
@@ -47157,7 +47161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>183</v>
       </c>
@@ -47183,7 +47187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>183</v>
       </c>
@@ -47209,7 +47213,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>183</v>
       </c>
@@ -47235,7 +47239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>183</v>
       </c>
@@ -47261,7 +47265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>183</v>
       </c>
@@ -47290,7 +47294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>183</v>
       </c>
@@ -47319,7 +47323,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>183</v>
       </c>
@@ -47348,7 +47352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>183</v>
       </c>
@@ -47377,7 +47381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>183</v>
       </c>
@@ -47406,7 +47410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>183</v>
       </c>
@@ -47435,7 +47439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>183</v>
       </c>
@@ -47464,7 +47468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>183</v>
       </c>
@@ -47493,7 +47497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>183</v>
       </c>
@@ -47522,7 +47526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>183</v>
       </c>
@@ -47551,7 +47555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>183</v>
       </c>
@@ -47580,7 +47584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>183</v>
       </c>
@@ -47609,7 +47613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>183</v>
       </c>
@@ -47635,7 +47639,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>183</v>
       </c>
@@ -47661,7 +47665,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>183</v>
       </c>
@@ -47687,7 +47691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>183</v>
       </c>
@@ -47713,7 +47717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>183</v>
       </c>
@@ -47739,7 +47743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>183</v>
       </c>
@@ -47765,7 +47769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>183</v>
       </c>
@@ -47791,7 +47795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>183</v>
       </c>
@@ -47817,7 +47821,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>183</v>
       </c>
@@ -47843,7 +47847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>183</v>
       </c>
@@ -47867,7 +47871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>183</v>
       </c>
@@ -47893,7 +47897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>183</v>
       </c>
@@ -47919,7 +47923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>183</v>
       </c>
@@ -47945,7 +47949,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>183</v>
       </c>
@@ -47971,7 +47975,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>183</v>
       </c>
@@ -47997,7 +48001,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>183</v>
       </c>
@@ -48023,7 +48027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>183</v>
       </c>
@@ -48049,7 +48053,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>183</v>
       </c>
@@ -48078,7 +48082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>183</v>
       </c>
@@ -48107,7 +48111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>183</v>
       </c>
@@ -48136,7 +48140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>183</v>
       </c>
@@ -48165,7 +48169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>183</v>
       </c>
@@ -48194,7 +48198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>183</v>
       </c>
@@ -48223,7 +48227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>183</v>
       </c>
@@ -48263,7 +48267,7 @@
         <v>196</v>
       </c>
       <c r="D454" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="E454" t="s">
         <v>36</v>
@@ -48292,7 +48296,7 @@
         <v>196</v>
       </c>
       <c r="D455" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="E455" t="s">
         <v>35</v>
@@ -48321,7 +48325,7 @@
         <v>196</v>
       </c>
       <c r="D456" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="E456" t="s">
         <v>33</v>
@@ -48350,7 +48354,7 @@
         <v>196</v>
       </c>
       <c r="D457" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="E457" t="s">
         <v>34</v>
@@ -48368,7 +48372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>204</v>
       </c>
@@ -48394,7 +48398,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>204</v>
       </c>
@@ -48420,7 +48424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>204</v>
       </c>
@@ -48446,7 +48450,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>204</v>
       </c>
@@ -48472,7 +48476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>204</v>
       </c>
@@ -48498,7 +48502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>204</v>
       </c>
@@ -48524,7 +48528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>204</v>
       </c>
@@ -48550,7 +48554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>204</v>
       </c>
@@ -48576,7 +48580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>204</v>
       </c>
@@ -48602,7 +48606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>204</v>
       </c>
@@ -48625,7 +48629,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>204</v>
       </c>
@@ -48648,7 +48652,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>204</v>
       </c>
@@ -48671,7 +48675,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>204</v>
       </c>
@@ -48697,7 +48701,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>204</v>
       </c>
@@ -48723,7 +48727,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>204</v>
       </c>
@@ -48749,7 +48753,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>204</v>
       </c>
@@ -48775,7 +48779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>204</v>
       </c>
@@ -48801,7 +48805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>204</v>
       </c>
@@ -48827,7 +48831,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>204</v>
       </c>
@@ -48853,7 +48857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>204</v>
       </c>
@@ -48879,7 +48883,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>204</v>
       </c>
@@ -48905,7 +48909,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>204</v>
       </c>
@@ -48931,7 +48935,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>204</v>
       </c>
@@ -48957,7 +48961,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>204</v>
       </c>
@@ -48983,7 +48987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>204</v>
       </c>
@@ -49009,7 +49013,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>204</v>
       </c>
@@ -49035,7 +49039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>204</v>
       </c>
@@ -49061,7 +49065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>204</v>
       </c>
@@ -49087,7 +49091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>204</v>
       </c>
@@ -49113,7 +49117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>204</v>
       </c>
@@ -49139,7 +49143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>204</v>
       </c>
@@ -49165,7 +49169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>204</v>
       </c>
@@ -49188,7 +49192,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>204</v>
       </c>
@@ -49211,7 +49215,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>204</v>
       </c>
@@ -49234,7 +49238,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>204</v>
       </c>
@@ -49260,7 +49264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>204</v>
       </c>
@@ -49286,7 +49290,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>204</v>
       </c>
@@ -49312,7 +49316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>204</v>
       </c>
@@ -49338,7 +49342,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>204</v>
       </c>
@@ -49364,7 +49368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>204</v>
       </c>
@@ -49390,7 +49394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>204</v>
       </c>
@@ -49416,7 +49420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>204</v>
       </c>
@@ -49442,7 +49446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>204</v>
       </c>
@@ -49468,7 +49472,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>204</v>
       </c>
@@ -49495,6 +49499,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N501" xr:uid="{E0108F44-9AB1-43D9-B41B-7BC1ED64F125}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="bulk density"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/meta_model/meta_model_R_copy1.xlsx
+++ b/data/meta_model/meta_model_R_copy1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d378ff900cd0a488/Wageningen/Master thesis/R Studio/msc_beeke/data/meta_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{E35EF706-6D1C-45D8-8A81-D8A6EFAF874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D970CC83-3CA8-4D33-8190-74EDA08E7567}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{E35EF706-6D1C-45D8-8A81-D8A6EFAF874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E502951-6C07-45DF-94FF-F681A19135CA}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="4830" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{23E2EBDD-BBB4-413F-B5F8-622405BB80ED}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{23E2EBDD-BBB4-413F-B5F8-622405BB80ED}"/>
   </bookViews>
   <sheets>
     <sheet name="references" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="370">
   <si>
     <t>paper_ID</t>
   </si>
@@ -1603,9 +1603,6 @@
     <t>very high &gt;40%</t>
   </si>
   <si>
-    <t>bc pH</t>
-  </si>
-  <si>
     <t>neutral &lt;9</t>
   </si>
   <si>
@@ -2268,9 +2265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2308,7 +2305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2414,7 +2411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2556,7 +2553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5193,7 +5190,7 @@
         <v>165</v>
       </c>
       <c r="K46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -5251,7 +5248,7 @@
         <v>165</v>
       </c>
       <c r="K47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -5309,7 +5306,7 @@
         <v>165</v>
       </c>
       <c r="K48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -5428,7 +5425,7 @@
         <v>164</v>
       </c>
       <c r="K50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -5486,7 +5483,7 @@
         <v>164</v>
       </c>
       <c r="K51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -5544,7 +5541,7 @@
         <v>164</v>
       </c>
       <c r="K52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -5602,7 +5599,7 @@
         <v>164</v>
       </c>
       <c r="K53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -5810,7 +5807,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -5865,7 +5862,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -5920,7 +5917,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -5975,7 +5972,7 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -6030,7 +6027,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -6085,7 +6082,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -6140,7 +6137,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -6198,7 +6195,7 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -6256,7 +6253,7 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -6314,7 +6311,7 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -6372,7 +6369,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -6430,7 +6427,7 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -6488,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -6549,7 +6546,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -6607,7 +6604,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -6665,7 +6662,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -6723,7 +6720,7 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -6781,7 +6778,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -6839,7 +6836,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -6897,7 +6894,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -6955,7 +6952,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -7013,7 +7010,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -7071,7 +7068,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -7129,7 +7126,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -7187,7 +7184,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -7245,7 +7242,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -7303,7 +7300,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -7361,7 +7358,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -7419,7 +7416,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -7477,7 +7474,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -7535,7 +7532,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -7593,7 +7590,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -7651,7 +7648,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -7709,7 +7706,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -7767,7 +7764,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -7825,7 +7822,7 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -7883,7 +7880,7 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -7941,7 +7938,7 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -7999,7 +7996,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -8057,7 +8054,7 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -8115,7 +8112,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -8173,7 +8170,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -8231,7 +8228,7 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -8289,7 +8286,7 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -8347,7 +8344,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -8365,7 +8362,7 @@
         <v>165</v>
       </c>
       <c r="K101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -8405,7 +8402,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -8423,7 +8420,7 @@
         <v>165</v>
       </c>
       <c r="K102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -8463,7 +8460,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -8481,7 +8478,7 @@
         <v>165</v>
       </c>
       <c r="K103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -8521,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -8585,7 +8582,7 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -8603,7 +8600,7 @@
         <v>164</v>
       </c>
       <c r="K105" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -8646,7 +8643,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -8664,7 +8661,7 @@
         <v>164</v>
       </c>
       <c r="K106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -8707,7 +8704,7 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -8725,7 +8722,7 @@
         <v>164</v>
       </c>
       <c r="K107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -8768,7 +8765,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -8786,7 +8783,7 @@
         <v>164</v>
       </c>
       <c r="K108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -8829,7 +8826,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -8887,7 +8884,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -8945,7 +8942,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -11558,7 +11555,7 @@
         <v>165</v>
       </c>
       <c r="K156" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
@@ -11616,7 +11613,7 @@
         <v>165</v>
       </c>
       <c r="K157" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -11674,7 +11671,7 @@
         <v>165</v>
       </c>
       <c r="K158" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
@@ -11796,7 +11793,7 @@
         <v>164</v>
       </c>
       <c r="K160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -11857,7 +11854,7 @@
         <v>164</v>
       </c>
       <c r="K161" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
@@ -11918,7 +11915,7 @@
         <v>164</v>
       </c>
       <c r="K162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
@@ -11979,7 +11976,7 @@
         <v>164</v>
       </c>
       <c r="K163" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
@@ -12937,7 +12934,7 @@
         <v>53</v>
       </c>
       <c r="K179" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L179" t="s">
         <v>17</v>
@@ -12998,7 +12995,7 @@
         <v>53</v>
       </c>
       <c r="K180" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L180" t="s">
         <v>17</v>
@@ -13059,7 +13056,7 @@
         <v>53</v>
       </c>
       <c r="K181" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L181" t="s">
         <v>17</v>
@@ -13120,7 +13117,7 @@
         <v>53</v>
       </c>
       <c r="K182" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L182" t="s">
         <v>17</v>
@@ -13181,7 +13178,7 @@
         <v>53</v>
       </c>
       <c r="K183" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L183" t="s">
         <v>17</v>
@@ -13492,7 +13489,7 @@
         <v>16</v>
       </c>
       <c r="O188" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P188" t="s">
         <v>17</v>
@@ -13553,7 +13550,7 @@
         <v>16</v>
       </c>
       <c r="O189" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P189" t="s">
         <v>17</v>
@@ -13614,7 +13611,7 @@
         <v>16</v>
       </c>
       <c r="O190" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P190" t="s">
         <v>17</v>
@@ -13675,7 +13672,7 @@
         <v>16</v>
       </c>
       <c r="O191" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P191" t="s">
         <v>17</v>
@@ -13736,7 +13733,7 @@
         <v>16</v>
       </c>
       <c r="O192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P192" t="s">
         <v>17</v>
@@ -13797,7 +13794,7 @@
         <v>16</v>
       </c>
       <c r="O193" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P193" t="s">
         <v>17</v>
@@ -14331,7 +14328,7 @@
         <v>76</v>
       </c>
       <c r="B202" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -14392,7 +14389,7 @@
         <v>76</v>
       </c>
       <c r="B203" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C203" t="s">
         <v>14</v>
@@ -14453,7 +14450,7 @@
         <v>76</v>
       </c>
       <c r="B204" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
@@ -14514,7 +14511,7 @@
         <v>76</v>
       </c>
       <c r="B205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C205" t="s">
         <v>14</v>
@@ -14578,7 +14575,7 @@
         <v>76</v>
       </c>
       <c r="B206" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C206" t="s">
         <v>14</v>
@@ -14642,7 +14639,7 @@
         <v>76</v>
       </c>
       <c r="B207" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C207" t="s">
         <v>14</v>
@@ -14706,7 +14703,7 @@
         <v>76</v>
       </c>
       <c r="B208" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C208" t="s">
         <v>14</v>
@@ -14770,7 +14767,7 @@
         <v>76</v>
       </c>
       <c r="B209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C209" t="s">
         <v>14</v>
@@ -14834,7 +14831,7 @@
         <v>76</v>
       </c>
       <c r="B210" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
@@ -14898,7 +14895,7 @@
         <v>76</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -14962,7 +14959,7 @@
         <v>76</v>
       </c>
       <c r="B212" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C212" t="s">
         <v>14</v>
@@ -15026,7 +15023,7 @@
         <v>76</v>
       </c>
       <c r="B213" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
@@ -15090,7 +15087,7 @@
         <v>76</v>
       </c>
       <c r="B214" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
@@ -15111,7 +15108,7 @@
         <v>53</v>
       </c>
       <c r="K214" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L214" t="s">
         <v>17</v>
@@ -15154,7 +15151,7 @@
         <v>76</v>
       </c>
       <c r="B215" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
@@ -15175,7 +15172,7 @@
         <v>53</v>
       </c>
       <c r="K215" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L215" t="s">
         <v>17</v>
@@ -15218,7 +15215,7 @@
         <v>76</v>
       </c>
       <c r="B216" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
@@ -15239,7 +15236,7 @@
         <v>53</v>
       </c>
       <c r="K216" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L216" t="s">
         <v>17</v>
@@ -15282,7 +15279,7 @@
         <v>76</v>
       </c>
       <c r="B217" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -15303,7 +15300,7 @@
         <v>53</v>
       </c>
       <c r="K217" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L217" t="s">
         <v>17</v>
@@ -15346,7 +15343,7 @@
         <v>76</v>
       </c>
       <c r="B218" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -15367,7 +15364,7 @@
         <v>53</v>
       </c>
       <c r="K218" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L218" t="s">
         <v>17</v>
@@ -15410,7 +15407,7 @@
         <v>76</v>
       </c>
       <c r="B219" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
@@ -15431,7 +15428,7 @@
         <v>53</v>
       </c>
       <c r="K219" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L219" t="s">
         <v>17</v>
@@ -15474,7 +15471,7 @@
         <v>76</v>
       </c>
       <c r="B220" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -15495,7 +15492,7 @@
         <v>165</v>
       </c>
       <c r="K220" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L220" t="s">
         <v>17</v>
@@ -15538,7 +15535,7 @@
         <v>76</v>
       </c>
       <c r="B221" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
@@ -15559,7 +15556,7 @@
         <v>165</v>
       </c>
       <c r="K221" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L221" t="s">
         <v>17</v>
@@ -15602,7 +15599,7 @@
         <v>76</v>
       </c>
       <c r="B222" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -15623,7 +15620,7 @@
         <v>165</v>
       </c>
       <c r="K222" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L222" t="s">
         <v>17</v>
@@ -15666,7 +15663,7 @@
         <v>76</v>
       </c>
       <c r="B223" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
@@ -15730,7 +15727,7 @@
         <v>76</v>
       </c>
       <c r="B224" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
@@ -15757,7 +15754,7 @@
         <v>16</v>
       </c>
       <c r="O224" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P224" t="s">
         <v>17</v>
@@ -15794,7 +15791,7 @@
         <v>76</v>
       </c>
       <c r="B225" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
@@ -15821,7 +15818,7 @@
         <v>16</v>
       </c>
       <c r="O225" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P225" t="s">
         <v>17</v>
@@ -15858,7 +15855,7 @@
         <v>76</v>
       </c>
       <c r="B226" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
@@ -15885,7 +15882,7 @@
         <v>16</v>
       </c>
       <c r="O226" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P226" t="s">
         <v>17</v>
@@ -15922,7 +15919,7 @@
         <v>76</v>
       </c>
       <c r="B227" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
@@ -15949,7 +15946,7 @@
         <v>16</v>
       </c>
       <c r="O227" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P227" t="s">
         <v>17</v>
@@ -15986,7 +15983,7 @@
         <v>76</v>
       </c>
       <c r="B228" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
@@ -16013,7 +16010,7 @@
         <v>16</v>
       </c>
       <c r="O228" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P228" t="s">
         <v>17</v>
@@ -16050,7 +16047,7 @@
         <v>76</v>
       </c>
       <c r="B229" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -16077,7 +16074,7 @@
         <v>16</v>
       </c>
       <c r="O229" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P229" t="s">
         <v>17</v>
@@ -16114,7 +16111,7 @@
         <v>76</v>
       </c>
       <c r="B230" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
@@ -16178,7 +16175,7 @@
         <v>76</v>
       </c>
       <c r="B231" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
@@ -16242,7 +16239,7 @@
         <v>76</v>
       </c>
       <c r="B232" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -16306,7 +16303,7 @@
         <v>76</v>
       </c>
       <c r="B233" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
@@ -16370,7 +16367,7 @@
         <v>76</v>
       </c>
       <c r="B234" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -16434,7 +16431,7 @@
         <v>76</v>
       </c>
       <c r="B235" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -16498,7 +16495,7 @@
         <v>76</v>
       </c>
       <c r="B236" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -16562,7 +16559,7 @@
         <v>76</v>
       </c>
       <c r="B237" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C237" t="s">
         <v>14</v>
@@ -16626,7 +16623,7 @@
         <v>76</v>
       </c>
       <c r="B238" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
@@ -16879,7 +16876,7 @@
         <v>118</v>
       </c>
       <c r="G242" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H242" t="s">
         <v>17</v>
@@ -16940,7 +16937,7 @@
         <v>118</v>
       </c>
       <c r="G243" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H243" t="s">
         <v>17</v>
@@ -17001,7 +16998,7 @@
         <v>118</v>
       </c>
       <c r="G244" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H244" t="s">
         <v>17</v>
@@ -17062,7 +17059,7 @@
         <v>118</v>
       </c>
       <c r="G245" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H245" t="s">
         <v>17</v>
@@ -18152,7 +18149,7 @@
         <v>164</v>
       </c>
       <c r="K263" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L263" t="s">
         <v>17</v>
@@ -18213,7 +18210,7 @@
         <v>164</v>
       </c>
       <c r="K264" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L264" t="s">
         <v>17</v>
@@ -18274,7 +18271,7 @@
         <v>164</v>
       </c>
       <c r="K265" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L265" t="s">
         <v>17</v>
@@ -18335,7 +18332,7 @@
         <v>164</v>
       </c>
       <c r="K266" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L266" t="s">
         <v>17</v>
@@ -18396,7 +18393,7 @@
         <v>164</v>
       </c>
       <c r="K267" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L267" t="s">
         <v>17</v>
@@ -20421,7 +20418,7 @@
         <v>110</v>
       </c>
       <c r="S306" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T306" s="5">
         <v>-7.4747474747474696</v>
@@ -20577,7 +20574,7 @@
         <v>110</v>
       </c>
       <c r="S309" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T309" s="5">
         <v>-6.5319865319865302</v>
@@ -20733,7 +20730,7 @@
         <v>110</v>
       </c>
       <c r="S312" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T312" s="5">
         <v>-8.2828282828282802</v>
@@ -25290,7 +25287,7 @@
         <v>110</v>
       </c>
       <c r="S398" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T398" s="5">
         <v>3.8565022421524602</v>
@@ -25446,7 +25443,7 @@
         <v>110</v>
       </c>
       <c r="S401" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T401" s="5">
         <v>3.4977578475336299</v>
@@ -25550,7 +25547,7 @@
         <v>110</v>
       </c>
       <c r="S403" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T403" s="5">
         <v>7.4439461883408002</v>
@@ -25648,7 +25645,7 @@
         <v>53</v>
       </c>
       <c r="K405" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L405" t="s">
         <v>17</v>
@@ -25700,7 +25697,7 @@
         <v>53</v>
       </c>
       <c r="K406" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L406" t="s">
         <v>17</v>
@@ -25752,7 +25749,7 @@
         <v>53</v>
       </c>
       <c r="K407" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L407" t="s">
         <v>17</v>
@@ -25804,7 +25801,7 @@
         <v>53</v>
       </c>
       <c r="K408" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L408" t="s">
         <v>17</v>
@@ -25856,7 +25853,7 @@
         <v>53</v>
       </c>
       <c r="K409" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L409" t="s">
         <v>17</v>
@@ -25908,7 +25905,7 @@
         <v>53</v>
       </c>
       <c r="K410" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L410" t="s">
         <v>17</v>
@@ -29037,7 +29034,7 @@
         <v>72</v>
       </c>
       <c r="G473" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H473" t="s">
         <v>17</v>
@@ -29083,7 +29080,7 @@
         <v>72</v>
       </c>
       <c r="G474" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H474" t="s">
         <v>17</v>
@@ -29129,7 +29126,7 @@
         <v>72</v>
       </c>
       <c r="G475" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H475" t="s">
         <v>17</v>
@@ -29175,7 +29172,7 @@
         <v>72</v>
       </c>
       <c r="G476" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H476" t="s">
         <v>17</v>
@@ -29221,7 +29218,7 @@
         <v>72</v>
       </c>
       <c r="G477" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H477" t="s">
         <v>17</v>
@@ -29812,7 +29809,7 @@
         <v>72</v>
       </c>
       <c r="G491" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H491" t="s">
         <v>17</v>
@@ -29855,7 +29852,7 @@
         <v>72</v>
       </c>
       <c r="G492" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H492" t="s">
         <v>17</v>
@@ -29941,7 +29938,7 @@
         <v>72</v>
       </c>
       <c r="G494" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H494" t="s">
         <v>17</v>
@@ -29984,7 +29981,7 @@
         <v>72</v>
       </c>
       <c r="G495" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H495" t="s">
         <v>17</v>
@@ -30619,7 +30616,7 @@
         <v>17</v>
       </c>
       <c r="R509" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T509" s="5">
         <v>8.1138790035587096</v>
@@ -30659,7 +30656,7 @@
         <v>17</v>
       </c>
       <c r="R510" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T510" s="5">
         <v>11.8505338078291</v>
@@ -30699,7 +30696,7 @@
         <v>17</v>
       </c>
       <c r="R511" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T511" s="5">
         <v>13.932384341637</v>
@@ -31123,7 +31120,7 @@
         <v>118</v>
       </c>
       <c r="G521" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L521" t="s">
         <v>17</v>
@@ -31166,7 +31163,7 @@
         <v>118</v>
       </c>
       <c r="G522" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L522" t="s">
         <v>17</v>
@@ -31209,7 +31206,7 @@
         <v>118</v>
       </c>
       <c r="G523" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L523" t="s">
         <v>17</v>
@@ -31252,7 +31249,7 @@
         <v>118</v>
       </c>
       <c r="G524" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L524" t="s">
         <v>17</v>
@@ -31295,7 +31292,7 @@
         <v>118</v>
       </c>
       <c r="G525" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L525" t="s">
         <v>17</v>
@@ -32272,7 +32269,7 @@
         <v>118</v>
       </c>
       <c r="G548" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L548" t="s">
         <v>17</v>
@@ -32315,7 +32312,7 @@
         <v>118</v>
       </c>
       <c r="G549" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L549" t="s">
         <v>17</v>
@@ -32358,7 +32355,7 @@
         <v>118</v>
       </c>
       <c r="G550" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L550" t="s">
         <v>17</v>
@@ -32401,7 +32398,7 @@
         <v>118</v>
       </c>
       <c r="G551" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L551" t="s">
         <v>17</v>
@@ -32444,7 +32441,7 @@
         <v>118</v>
       </c>
       <c r="G552" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L552" t="s">
         <v>17</v>
@@ -33225,7 +33222,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J2" s="5">
         <v>14.45</v>
@@ -33251,7 +33248,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J3" s="5">
         <v>13.97</v>
@@ -33277,7 +33274,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J4" s="5">
         <v>14.28</v>
@@ -33300,7 +33297,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I5" t="s">
         <v>138</v>
@@ -33326,7 +33323,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I6" t="s">
         <v>147</v>
@@ -33352,7 +33349,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J7" s="5">
         <v>36.1</v>
@@ -33375,7 +33372,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J8" s="5">
         <v>7</v>
@@ -33398,7 +33395,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I9" t="s">
         <v>146</v>
@@ -33427,7 +33424,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J10" s="5">
         <v>17.399999999999999</v>
@@ -33453,7 +33450,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J11" s="5">
         <v>4.7</v>
@@ -33476,7 +33473,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J12" s="5">
         <v>12</v>
@@ -33502,7 +33499,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J13" s="5">
         <v>57</v>
@@ -33525,7 +33522,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I14" t="s">
         <v>146</v>
@@ -33551,7 +33548,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I15" t="s">
         <v>226</v>
@@ -33577,7 +33574,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I16" t="s">
         <v>228</v>
@@ -33603,7 +33600,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I17" t="s">
         <v>146</v>
@@ -33629,8 +33626,8 @@
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33659,22 +33656,22 @@
         <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
         <v>252</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1" t="s">
         <v>253</v>
       </c>
       <c r="I1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J1" t="s">
         <v>254</v>
@@ -33991,7 +33988,7 @@
         <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -34020,7 +34017,7 @@
         <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -34049,7 +34046,7 @@
         <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -34078,7 +34075,7 @@
         <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -34096,7 +34093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -34125,7 +34122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -34154,7 +34151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -34183,7 +34180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -34212,7 +34209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -34446,7 +34443,7 @@
         <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>91</v>
@@ -34475,7 +34472,7 @@
         <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
@@ -34504,7 +34501,7 @@
         <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
         <v>94</v>
@@ -34881,7 +34878,7 @@
         <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
         <v>90</v>
@@ -34910,7 +34907,7 @@
         <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
         <v>94</v>
@@ -34939,10 +34936,10 @@
         <v>260</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>68</v>
@@ -35000,7 +34997,7 @@
         <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>237</v>
@@ -35029,7 +35026,7 @@
         <v>164</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>237</v>
@@ -35058,7 +35055,7 @@
         <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>238</v>
@@ -35087,7 +35084,7 @@
         <v>164</v>
       </c>
       <c r="E50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>238</v>
@@ -35113,7 +35110,7 @@
         <v>260</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" t="s">
         <v>35</v>
@@ -35142,7 +35139,7 @@
         <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E52" t="s">
         <v>32</v>
@@ -35171,7 +35168,7 @@
         <v>260</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
@@ -35194,7 +35191,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -35223,7 +35220,7 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -35252,7 +35249,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -35281,7 +35278,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -35307,7 +35304,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -35333,7 +35330,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -35359,7 +35356,7 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -35388,7 +35385,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -35417,7 +35414,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -35446,7 +35443,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -35475,13 +35472,13 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -35504,13 +35501,13 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E65" t="s">
         <v>35</v>
@@ -35533,13 +35530,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E66" t="s">
         <v>33</v>
@@ -35562,13 +35559,13 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
         <v>34</v>
@@ -35586,12 +35583,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -35615,12 +35612,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -35644,12 +35641,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -35673,12 +35670,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -35702,12 +35699,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -35736,7 +35733,7 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -35762,7 +35759,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -35788,7 +35785,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -35814,7 +35811,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -35843,7 +35840,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -35872,7 +35869,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -35901,7 +35898,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -35930,13 +35927,13 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E80" t="s">
         <v>91</v>
@@ -35959,13 +35956,13 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E81" t="s">
         <v>90</v>
@@ -35988,13 +35985,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E82" t="s">
         <v>94</v>
@@ -36017,7 +36014,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -36046,7 +36043,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -36075,7 +36072,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -36104,7 +36101,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -36133,7 +36130,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -36162,7 +36159,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -36191,7 +36188,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -36220,7 +36217,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -36249,7 +36246,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -36278,7 +36275,7 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -36307,7 +36304,7 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -36336,7 +36333,7 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -36365,13 +36362,13 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E95" t="s">
         <v>90</v>
@@ -36394,13 +36391,13 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
@@ -36423,16 +36420,16 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>68</v>
@@ -36452,7 +36449,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -36481,7 +36478,7 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -36510,7 +36507,7 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -36539,7 +36536,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -36568,7 +36565,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -36597,13 +36594,13 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E103" t="s">
         <v>35</v>
@@ -36626,13 +36623,13 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E104" t="s">
         <v>32</v>
@@ -36655,13 +36652,13 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E105" t="s">
         <v>33</v>
@@ -36980,7 +36977,7 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
@@ -37009,7 +37006,7 @@
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E117" t="s">
         <v>35</v>
@@ -37038,7 +37035,7 @@
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
@@ -37067,7 +37064,7 @@
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E119" t="s">
         <v>34</v>
@@ -37085,7 +37082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -37114,7 +37111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -37143,7 +37140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -37172,7 +37169,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -37201,7 +37198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -37241,7 +37238,7 @@
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E125" t="s">
         <v>43</v>
@@ -37267,7 +37264,7 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E126" t="s">
         <v>44</v>
@@ -37435,7 +37432,7 @@
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E132" t="s">
         <v>91</v>
@@ -37464,7 +37461,7 @@
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E133" t="s">
         <v>90</v>
@@ -37493,7 +37490,7 @@
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E134" t="s">
         <v>94</v>
@@ -37870,7 +37867,7 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E147" t="s">
         <v>90</v>
@@ -37899,7 +37896,7 @@
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E148" t="s">
         <v>94</v>
@@ -37928,10 +37925,10 @@
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="E149" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>68</v>
@@ -38102,7 +38099,7 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E155" t="s">
         <v>35</v>
@@ -38131,7 +38128,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E156" t="s">
         <v>32</v>
@@ -38160,7 +38157,7 @@
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E157" t="s">
         <v>33</v>
@@ -38323,7 +38320,7 @@
         <v>260</v>
       </c>
       <c r="D162" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E162" t="s">
         <v>94</v>
@@ -38358,7 +38355,7 @@
         <v>260</v>
       </c>
       <c r="D163" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E163" t="s">
         <v>90</v>
@@ -38393,7 +38390,7 @@
         <v>260</v>
       </c>
       <c r="D164" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E164" t="s">
         <v>91</v>
@@ -38548,7 +38545,7 @@
         <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G168" t="s">
         <v>262</v>
@@ -38586,7 +38583,7 @@
         <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G169" t="s">
         <v>262</v>
@@ -38624,7 +38621,7 @@
         <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G170" t="s">
         <v>262</v>
@@ -38662,7 +38659,7 @@
         <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G171" t="s">
         <v>262</v>
@@ -38700,7 +38697,7 @@
         <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G172" t="s">
         <v>262</v>
@@ -38735,7 +38732,7 @@
         <v>165</v>
       </c>
       <c r="E173" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F173" t="s">
         <v>95</v>
@@ -38881,13 +38878,13 @@
         <v>260</v>
       </c>
       <c r="D177" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E177" t="s">
         <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G177" t="s">
         <v>262</v>
@@ -38919,13 +38916,13 @@
         <v>260</v>
       </c>
       <c r="D178" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E178" t="s">
         <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G178" t="s">
         <v>262</v>
@@ -38957,13 +38954,13 @@
         <v>260</v>
       </c>
       <c r="D179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E179" t="s">
         <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G179" t="s">
         <v>262</v>
@@ -38995,13 +38992,13 @@
         <v>260</v>
       </c>
       <c r="D180" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E180" t="s">
         <v>35</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G180" t="s">
         <v>262</v>
@@ -39033,13 +39030,13 @@
         <v>260</v>
       </c>
       <c r="D181" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E181" t="s">
         <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G181" t="s">
         <v>262</v>
@@ -39071,13 +39068,13 @@
         <v>260</v>
       </c>
       <c r="D182" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E182" t="s">
         <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G182" t="s">
         <v>262</v>
@@ -39098,7 +39095,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>76</v>
       </c>
@@ -39136,7 +39133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>76</v>
       </c>
@@ -39174,7 +39171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>76</v>
       </c>
@@ -39212,7 +39209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>76</v>
       </c>
@@ -39250,7 +39247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>76</v>
       </c>
@@ -39299,7 +39296,7 @@
         <v>260</v>
       </c>
       <c r="D188" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E188" t="s">
         <v>108</v>
@@ -39337,10 +39334,10 @@
         <v>260</v>
       </c>
       <c r="D189" t="s">
+        <v>345</v>
+      </c>
+      <c r="E189" t="s">
         <v>346</v>
-      </c>
-      <c r="E189" t="s">
-        <v>347</v>
       </c>
       <c r="F189" t="s">
         <v>112</v>
@@ -39375,7 +39372,7 @@
         <v>260</v>
       </c>
       <c r="D190" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E190" t="s">
         <v>109</v>
@@ -39407,7 +39404,7 @@
         <v>76</v>
       </c>
       <c r="B191" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C191" t="s">
         <v>14</v>
@@ -39436,7 +39433,7 @@
         <v>76</v>
       </c>
       <c r="B192" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -39471,7 +39468,7 @@
         <v>76</v>
       </c>
       <c r="B193" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C193" t="s">
         <v>14</v>
@@ -39506,7 +39503,7 @@
         <v>76</v>
       </c>
       <c r="B194" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C194" t="s">
         <v>14</v>
@@ -39541,13 +39538,13 @@
         <v>76</v>
       </c>
       <c r="B195" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E195" t="s">
         <v>94</v>
@@ -39576,13 +39573,13 @@
         <v>76</v>
       </c>
       <c r="B196" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E196" t="s">
         <v>90</v>
@@ -39611,13 +39608,13 @@
         <v>76</v>
       </c>
       <c r="B197" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C197" t="s">
         <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E197" t="s">
         <v>91</v>
@@ -39646,7 +39643,7 @@
         <v>76</v>
       </c>
       <c r="B198" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C198" t="s">
         <v>14</v>
@@ -39684,7 +39681,7 @@
         <v>76</v>
       </c>
       <c r="B199" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C199" t="s">
         <v>14</v>
@@ -39722,7 +39719,7 @@
         <v>76</v>
       </c>
       <c r="B200" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
@@ -39760,7 +39757,7 @@
         <v>76</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
@@ -39772,7 +39769,7 @@
         <v>34</v>
       </c>
       <c r="F201" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G201" t="s">
         <v>262</v>
@@ -39798,7 +39795,7 @@
         <v>76</v>
       </c>
       <c r="B202" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -39810,7 +39807,7 @@
         <v>33</v>
       </c>
       <c r="F202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G202" t="s">
         <v>262</v>
@@ -39836,7 +39833,7 @@
         <v>76</v>
       </c>
       <c r="B203" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C203" t="s">
         <v>14</v>
@@ -39848,7 +39845,7 @@
         <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G203" t="s">
         <v>262</v>
@@ -39874,7 +39871,7 @@
         <v>76</v>
       </c>
       <c r="B204" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
@@ -39886,7 +39883,7 @@
         <v>35</v>
       </c>
       <c r="F204" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G204" t="s">
         <v>262</v>
@@ -39912,7 +39909,7 @@
         <v>76</v>
       </c>
       <c r="B205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C205" t="s">
         <v>14</v>
@@ -39924,7 +39921,7 @@
         <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G205" t="s">
         <v>262</v>
@@ -39950,7 +39947,7 @@
         <v>76</v>
       </c>
       <c r="B206" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C206" t="s">
         <v>14</v>
@@ -39962,7 +39959,7 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G206" t="s">
         <v>262</v>
@@ -39988,7 +39985,7 @@
         <v>76</v>
       </c>
       <c r="B207" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C207" t="s">
         <v>14</v>
@@ -39997,7 +39994,7 @@
         <v>165</v>
       </c>
       <c r="E207" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F207" t="s">
         <v>95</v>
@@ -40026,7 +40023,7 @@
         <v>76</v>
       </c>
       <c r="B208" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C208" t="s">
         <v>14</v>
@@ -40064,7 +40061,7 @@
         <v>76</v>
       </c>
       <c r="B209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C209" t="s">
         <v>14</v>
@@ -40102,7 +40099,7 @@
         <v>76</v>
       </c>
       <c r="B210" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
@@ -40137,19 +40134,19 @@
         <v>76</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E211" t="s">
         <v>34</v>
       </c>
       <c r="F211" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G211" t="s">
         <v>262</v>
@@ -40175,19 +40172,19 @@
         <v>76</v>
       </c>
       <c r="B212" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C212" t="s">
         <v>14</v>
       </c>
       <c r="D212" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E212" t="s">
         <v>33</v>
       </c>
       <c r="F212" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G212" t="s">
         <v>262</v>
@@ -40213,19 +40210,19 @@
         <v>76</v>
       </c>
       <c r="B213" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E213" t="s">
         <v>33</v>
       </c>
       <c r="F213" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G213" t="s">
         <v>262</v>
@@ -40251,19 +40248,19 @@
         <v>76</v>
       </c>
       <c r="B214" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
       </c>
       <c r="D214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E214" t="s">
         <v>35</v>
       </c>
       <c r="F214" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G214" t="s">
         <v>262</v>
@@ -40289,19 +40286,19 @@
         <v>76</v>
       </c>
       <c r="B215" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
       </c>
       <c r="D215" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E215" t="s">
         <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G215" t="s">
         <v>262</v>
@@ -40327,19 +40324,19 @@
         <v>76</v>
       </c>
       <c r="B216" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E216" t="s">
         <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G216" t="s">
         <v>262</v>
@@ -40360,12 +40357,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>76</v>
       </c>
       <c r="B217" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -40398,12 +40395,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>76</v>
       </c>
       <c r="B218" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -40436,12 +40433,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>76</v>
       </c>
       <c r="B219" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
@@ -40474,12 +40471,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>76</v>
       </c>
       <c r="B220" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -40512,12 +40509,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>76</v>
       </c>
       <c r="B221" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
@@ -40550,12 +40547,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>76</v>
       </c>
       <c r="B222" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -40593,13 +40590,13 @@
         <v>76</v>
       </c>
       <c r="B223" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
       </c>
       <c r="D223" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E223" t="s">
         <v>108</v>
@@ -40631,16 +40628,16 @@
         <v>76</v>
       </c>
       <c r="B224" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
       </c>
       <c r="D224" t="s">
+        <v>345</v>
+      </c>
+      <c r="E224" t="s">
         <v>346</v>
-      </c>
-      <c r="E224" t="s">
-        <v>347</v>
       </c>
       <c r="F224" t="s">
         <v>112</v>
@@ -40669,13 +40666,13 @@
         <v>76</v>
       </c>
       <c r="B225" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E225" t="s">
         <v>109</v>
@@ -40702,7 +40699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>143</v>
       </c>
@@ -40728,10 +40725,10 @@
         <v>49</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>143</v>
       </c>
@@ -40757,7 +40754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>143</v>
       </c>
@@ -40876,7 +40873,7 @@
         <v>43</v>
       </c>
       <c r="J231" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K231" s="5">
         <v>-6.8686868686868596</v>
@@ -40911,7 +40908,7 @@
         <v>43</v>
       </c>
       <c r="J232" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K232" s="5">
         <v>-9.3602693602693599</v>
@@ -40946,7 +40943,7 @@
         <v>43</v>
       </c>
       <c r="J233" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K233" s="5">
         <v>-10.639730639730599</v>
@@ -41051,7 +41048,7 @@
         <v>44</v>
       </c>
       <c r="J236" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K236" s="5">
         <v>-10.909090909090899</v>
@@ -41086,7 +41083,7 @@
         <v>44</v>
       </c>
       <c r="J237" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K237" s="5">
         <v>-5.7912457912457898</v>
@@ -41121,7 +41118,7 @@
         <v>44</v>
       </c>
       <c r="J238" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K238" s="5">
         <v>-5.7912457912457898</v>
@@ -41226,7 +41223,7 @@
         <v>44</v>
       </c>
       <c r="J241" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K241" s="5">
         <v>-4.7811447811447803</v>
@@ -41261,7 +41258,7 @@
         <v>44</v>
       </c>
       <c r="J242" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K242" s="5">
         <v>-4.7811447811447803</v>
@@ -41296,7 +41293,7 @@
         <v>45</v>
       </c>
       <c r="J243" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K243" s="5">
         <v>-12.7272727272727</v>
@@ -41401,7 +41398,7 @@
         <v>45</v>
       </c>
       <c r="J246" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K246" s="5">
         <v>-9.6969696969696901</v>
@@ -41436,7 +41433,7 @@
         <v>45</v>
       </c>
       <c r="J247" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K247" s="5">
         <v>-6.2626262626262603</v>
@@ -41471,7 +41468,7 @@
         <v>45</v>
       </c>
       <c r="J248" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K248" s="5">
         <v>-6.2626262626262603</v>
@@ -41518,7 +41515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>143</v>
       </c>
@@ -41529,7 +41526,7 @@
         <v>145</v>
       </c>
       <c r="E250" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F250" t="s">
         <v>151</v>
@@ -41541,7 +41538,7 @@
         <v>43</v>
       </c>
       <c r="J250" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K250" s="5">
         <v>-11.1784511784511</v>
@@ -41553,7 +41550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>143</v>
       </c>
@@ -41564,7 +41561,7 @@
         <v>145</v>
       </c>
       <c r="E251" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F251" t="s">
         <v>148</v>
@@ -41576,7 +41573,7 @@
         <v>43</v>
       </c>
       <c r="J251" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K251" s="5">
         <v>-11.8518518518518</v>
@@ -41588,7 +41585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>143</v>
       </c>
@@ -41599,7 +41596,7 @@
         <v>145</v>
       </c>
       <c r="E252" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F252" t="s">
         <v>149</v>
@@ -41623,7 +41620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>143</v>
       </c>
@@ -41634,7 +41631,7 @@
         <v>145</v>
       </c>
       <c r="E253" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F253" t="s">
         <v>150</v>
@@ -41646,7 +41643,7 @@
         <v>43</v>
       </c>
       <c r="J253" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K253" s="5">
         <v>-6.5993265993266004</v>
@@ -41658,7 +41655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>143</v>
       </c>
@@ -41669,7 +41666,7 @@
         <v>145</v>
       </c>
       <c r="E254" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F254" t="s">
         <v>151</v>
@@ -41681,7 +41678,7 @@
         <v>44</v>
       </c>
       <c r="J254" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K254" s="5">
         <v>-8.4175084175084098</v>
@@ -41693,7 +41690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>143</v>
       </c>
@@ -41704,7 +41701,7 @@
         <v>145</v>
       </c>
       <c r="E255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F255" t="s">
         <v>148</v>
@@ -41728,7 +41725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>143</v>
       </c>
@@ -41739,7 +41736,7 @@
         <v>145</v>
       </c>
       <c r="E256" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F256" t="s">
         <v>149</v>
@@ -41751,7 +41748,7 @@
         <v>44</v>
       </c>
       <c r="J256" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K256" s="5">
         <v>-6.12794612794612</v>
@@ -41763,7 +41760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>143</v>
       </c>
@@ -41774,7 +41771,7 @@
         <v>145</v>
       </c>
       <c r="E257" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F257" t="s">
         <v>150</v>
@@ -41786,7 +41783,7 @@
         <v>44</v>
       </c>
       <c r="J257" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K257" s="5">
         <v>-7.4747474747474696</v>
@@ -41798,7 +41795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>143</v>
       </c>
@@ -41809,7 +41806,7 @@
         <v>145</v>
       </c>
       <c r="E258" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F258" t="s">
         <v>151</v>
@@ -41833,7 +41830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>143</v>
       </c>
@@ -41844,7 +41841,7 @@
         <v>145</v>
       </c>
       <c r="E259" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F259" t="s">
         <v>148</v>
@@ -41856,7 +41853,7 @@
         <v>45</v>
       </c>
       <c r="J259" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K259" s="5">
         <v>-9.96632996632996</v>
@@ -41868,7 +41865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>143</v>
       </c>
@@ -41879,7 +41876,7 @@
         <v>145</v>
       </c>
       <c r="E260" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F260" t="s">
         <v>149</v>
@@ -41891,7 +41888,7 @@
         <v>45</v>
       </c>
       <c r="J260" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K260" s="5">
         <v>-3.7037037037037002</v>
@@ -41903,7 +41900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>143</v>
       </c>
@@ -41914,7 +41911,7 @@
         <v>145</v>
       </c>
       <c r="E261" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F261" t="s">
         <v>150</v>
@@ -41938,7 +41935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>143</v>
       </c>
@@ -41946,7 +41943,7 @@
         <v>136</v>
       </c>
       <c r="D262" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E262" t="s">
         <v>108</v>
@@ -41973,7 +41970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>143</v>
       </c>
@@ -41981,13 +41978,13 @@
         <v>136</v>
       </c>
       <c r="D263" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E263" t="s">
         <v>110</v>
       </c>
       <c r="F263" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G263" t="s">
         <v>42</v>
@@ -41996,7 +41993,7 @@
         <v>43</v>
       </c>
       <c r="J263" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K263" s="5">
         <v>-7.4747474747474696</v>
@@ -42008,7 +42005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>143</v>
       </c>
@@ -42016,7 +42013,7 @@
         <v>136</v>
       </c>
       <c r="D264" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E264" t="s">
         <v>109</v>
@@ -42031,7 +42028,7 @@
         <v>43</v>
       </c>
       <c r="J264" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K264" s="5">
         <v>-11.649831649831601</v>
@@ -42043,7 +42040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>143</v>
       </c>
@@ -42051,7 +42048,7 @@
         <v>136</v>
       </c>
       <c r="D265" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E265" t="s">
         <v>108</v>
@@ -42078,7 +42075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>143</v>
       </c>
@@ -42086,13 +42083,13 @@
         <v>136</v>
       </c>
       <c r="D266" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E266" t="s">
         <v>110</v>
       </c>
       <c r="F266" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G266" t="s">
         <v>42</v>
@@ -42113,7 +42110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>143</v>
       </c>
@@ -42121,7 +42118,7 @@
         <v>136</v>
       </c>
       <c r="D267" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E267" t="s">
         <v>109</v>
@@ -42136,7 +42133,7 @@
         <v>44</v>
       </c>
       <c r="J267" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K267" s="5">
         <v>-7.87878787878787</v>
@@ -42148,7 +42145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>143</v>
       </c>
@@ -42156,7 +42153,7 @@
         <v>136</v>
       </c>
       <c r="D268" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E268" t="s">
         <v>108</v>
@@ -42171,7 +42168,7 @@
         <v>45</v>
       </c>
       <c r="J268" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K268" s="5">
         <v>-5.9932659932659904</v>
@@ -42183,7 +42180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>143</v>
       </c>
@@ -42191,13 +42188,13 @@
         <v>136</v>
       </c>
       <c r="D269" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E269" t="s">
         <v>110</v>
       </c>
       <c r="F269" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G269" t="s">
         <v>42</v>
@@ -42218,7 +42215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>143</v>
       </c>
@@ -42226,7 +42223,7 @@
         <v>136</v>
       </c>
       <c r="D270" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E270" t="s">
         <v>109</v>
@@ -42253,7 +42250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>143</v>
       </c>
@@ -42276,7 +42273,7 @@
         <v>43</v>
       </c>
       <c r="J271" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K271" s="5">
         <v>-5.0961538461538396</v>
@@ -42288,7 +42285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>143</v>
       </c>
@@ -42311,7 +42308,7 @@
         <v>43</v>
       </c>
       <c r="J272" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K272" s="5">
         <v>-3.9423076923076898</v>
@@ -42323,7 +42320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>143</v>
       </c>
@@ -42358,7 +42355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>143</v>
       </c>
@@ -42393,7 +42390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>143</v>
       </c>
@@ -42416,7 +42413,7 @@
         <v>45</v>
       </c>
       <c r="J275" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K275" s="5">
         <v>-12.019230769230701</v>
@@ -42428,7 +42425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>143</v>
       </c>
@@ -42436,7 +42433,7 @@
         <v>136</v>
       </c>
       <c r="D276" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E276" t="s">
         <v>34</v>
@@ -42451,7 +42448,7 @@
         <v>43</v>
       </c>
       <c r="J276" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K276" s="5">
         <v>-7.6923076923076898</v>
@@ -42463,7 +42460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>143</v>
       </c>
@@ -42471,7 +42468,7 @@
         <v>136</v>
       </c>
       <c r="D277" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E277" t="s">
         <v>33</v>
@@ -42498,7 +42495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>143</v>
       </c>
@@ -42506,7 +42503,7 @@
         <v>136</v>
       </c>
       <c r="D278" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E278" t="s">
         <v>35</v>
@@ -42533,7 +42530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>143</v>
       </c>
@@ -42541,7 +42538,7 @@
         <v>136</v>
       </c>
       <c r="D279" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E279" t="s">
         <v>36</v>
@@ -42556,7 +42553,7 @@
         <v>43</v>
       </c>
       <c r="J279" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K279" s="5">
         <v>-7.1153846153846203</v>
@@ -42568,7 +42565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>143</v>
       </c>
@@ -42576,7 +42573,7 @@
         <v>136</v>
       </c>
       <c r="D280" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E280" t="s">
         <v>35</v>
@@ -42591,7 +42588,7 @@
         <v>44</v>
       </c>
       <c r="J280" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K280" s="5">
         <v>-3.9423076923076898</v>
@@ -42603,7 +42600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>143</v>
       </c>
@@ -42611,7 +42608,7 @@
         <v>136</v>
       </c>
       <c r="D281" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E281" t="s">
         <v>34</v>
@@ -42638,7 +42635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>143</v>
       </c>
@@ -42646,7 +42643,7 @@
         <v>136</v>
       </c>
       <c r="D282" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E282" t="s">
         <v>35</v>
@@ -42673,7 +42670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>143</v>
       </c>
@@ -42681,7 +42678,7 @@
         <v>136</v>
       </c>
       <c r="D283" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E283" t="s">
         <v>36</v>
@@ -42696,7 +42693,7 @@
         <v>45</v>
       </c>
       <c r="J283" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K283" s="5">
         <v>-16.923076923076898</v>
@@ -42708,7 +42705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>143</v>
       </c>
@@ -42731,7 +42728,7 @@
         <v>43</v>
       </c>
       <c r="J284" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K284" s="5">
         <v>-15.769230769230701</v>
@@ -42743,7 +42740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>143</v>
       </c>
@@ -42778,7 +42775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>143</v>
       </c>
@@ -42813,7 +42810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>143</v>
       </c>
@@ -42836,7 +42833,7 @@
         <v>43</v>
       </c>
       <c r="J287" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K287" s="5">
         <v>-7.6923076923076898</v>
@@ -42848,7 +42845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>143</v>
       </c>
@@ -42871,7 +42868,7 @@
         <v>44</v>
       </c>
       <c r="J288" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K288" s="5">
         <v>-7.9807692307692299</v>
@@ -42883,7 +42880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>143</v>
       </c>
@@ -42918,7 +42915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>143</v>
       </c>
@@ -42953,7 +42950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>143</v>
       </c>
@@ -42976,7 +42973,7 @@
         <v>45</v>
       </c>
       <c r="J291" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K291" s="5">
         <v>-9.7115384615384599</v>
@@ -42988,7 +42985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>143</v>
       </c>
@@ -43011,7 +43008,7 @@
         <v>45</v>
       </c>
       <c r="J292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K292" s="5">
         <v>-4.8076923076923102</v>
@@ -43023,7 +43020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>143</v>
       </c>
@@ -43058,7 +43055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>143</v>
       </c>
@@ -43093,7 +43090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>143</v>
       </c>
@@ -43116,7 +43113,7 @@
         <v>43</v>
       </c>
       <c r="J295" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K295" s="5">
         <v>-10.288461538461499</v>
@@ -43128,7 +43125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>143</v>
       </c>
@@ -43151,7 +43148,7 @@
         <v>43</v>
       </c>
       <c r="J296" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K296" s="5">
         <v>-14.615384615384601</v>
@@ -43163,7 +43160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>143</v>
       </c>
@@ -43198,7 +43195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>143</v>
       </c>
@@ -43233,7 +43230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>143</v>
       </c>
@@ -43256,7 +43253,7 @@
         <v>44</v>
       </c>
       <c r="J299" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K299" s="5">
         <v>-7.4038461538461497</v>
@@ -43268,7 +43265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>143</v>
       </c>
@@ -43291,7 +43288,7 @@
         <v>44</v>
       </c>
       <c r="J300" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K300" s="5">
         <v>-8.5576923076923102</v>
@@ -43303,7 +43300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>143</v>
       </c>
@@ -43338,7 +43335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>143</v>
       </c>
@@ -43373,7 +43370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>143</v>
       </c>
@@ -43396,7 +43393,7 @@
         <v>45</v>
       </c>
       <c r="J303" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K303" s="5">
         <v>-8.8461538461538503</v>
@@ -43408,7 +43405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>143</v>
       </c>
@@ -43431,7 +43428,7 @@
         <v>45</v>
       </c>
       <c r="J304" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K304" s="5">
         <v>-6.8269230769230802</v>
@@ -43443,7 +43440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>143</v>
       </c>
@@ -43478,7 +43475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>143</v>
       </c>
@@ -43513,7 +43510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>143</v>
       </c>
@@ -43537,7 +43534,7 @@
       </c>
       <c r="I307" s="8"/>
       <c r="J307" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K307" s="5">
         <v>-12.307692307692299</v>
@@ -43549,7 +43546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>143</v>
       </c>
@@ -43573,7 +43570,7 @@
       </c>
       <c r="I308" s="8"/>
       <c r="J308" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K308" s="5">
         <v>-9.4230769230769198</v>
@@ -43585,7 +43582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>143</v>
       </c>
@@ -43621,7 +43618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>143</v>
       </c>
@@ -43657,7 +43654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>143</v>
       </c>
@@ -43681,7 +43678,7 @@
       </c>
       <c r="I311" s="8"/>
       <c r="J311" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K311" s="5">
         <v>-12.019230769230701</v>
@@ -43693,7 +43690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>143</v>
       </c>
@@ -43717,7 +43714,7 @@
       </c>
       <c r="I312" s="8"/>
       <c r="J312" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K312" s="5">
         <v>-7.9807692307692299</v>
@@ -43729,7 +43726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>143</v>
       </c>
@@ -43765,7 +43762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>143</v>
       </c>
@@ -43801,7 +43798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>143</v>
       </c>
@@ -43825,7 +43822,7 @@
       </c>
       <c r="I315" s="8"/>
       <c r="J315" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K315" s="5">
         <v>-9.1346153846153797</v>
@@ -43837,7 +43834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>143</v>
       </c>
@@ -43861,7 +43858,7 @@
       </c>
       <c r="I316" s="8"/>
       <c r="J316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K316" s="5">
         <v>-19.807692307692299</v>
@@ -43873,7 +43870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>143</v>
       </c>
@@ -43908,7 +43905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>143</v>
       </c>
@@ -43943,7 +43940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>143</v>
       </c>
@@ -43966,7 +43963,7 @@
         <v>43</v>
       </c>
       <c r="J319" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K319" s="5">
         <v>-6.5384615384615401</v>
@@ -43978,7 +43975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>143</v>
       </c>
@@ -44001,7 +43998,7 @@
         <v>43</v>
       </c>
       <c r="J320" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K320" s="5">
         <v>-6.8269230769230802</v>
@@ -44013,7 +44010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>143</v>
       </c>
@@ -44048,7 +44045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>143</v>
       </c>
@@ -44083,7 +44080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>143</v>
       </c>
@@ -44106,7 +44103,7 @@
         <v>44</v>
       </c>
       <c r="J323" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K323" s="5">
         <v>-8.2692307692307701</v>
@@ -44118,7 +44115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>143</v>
       </c>
@@ -44141,7 +44138,7 @@
         <v>44</v>
       </c>
       <c r="J324" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K324" s="5">
         <v>-8.2692307692307701</v>
@@ -44153,7 +44150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>143</v>
       </c>
@@ -44188,7 +44185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>143</v>
       </c>
@@ -44223,7 +44220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>143</v>
       </c>
@@ -44246,7 +44243,7 @@
         <v>45</v>
       </c>
       <c r="J327" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K327" s="5">
         <v>-8.2692307692307701</v>
@@ -44273,7 +44270,7 @@
       </c>
       <c r="F328"/>
       <c r="J328" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K328" s="5">
         <v>12.3</v>
@@ -44300,7 +44297,7 @@
       </c>
       <c r="F329"/>
       <c r="J329" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K329" s="5">
         <v>7.2</v>
@@ -44327,7 +44324,7 @@
       </c>
       <c r="F330"/>
       <c r="J330" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K330" s="5">
         <v>5.5</v>
@@ -44339,7 +44336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>143</v>
       </c>
@@ -44362,7 +44359,7 @@
         <v>43</v>
       </c>
       <c r="J331" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K331" s="5">
         <v>15.156950672645699</v>
@@ -44374,7 +44371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>143</v>
       </c>
@@ -44397,7 +44394,7 @@
         <v>43</v>
       </c>
       <c r="J332" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K332" s="5">
         <v>5.65022421524663</v>
@@ -44409,7 +44406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>143</v>
       </c>
@@ -44432,7 +44429,7 @@
         <v>43</v>
       </c>
       <c r="J333" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K333" s="5">
         <v>5.65022421524663</v>
@@ -44444,7 +44441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>143</v>
       </c>
@@ -44467,7 +44464,7 @@
         <v>43</v>
       </c>
       <c r="J334" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K334" s="5">
         <v>-21.076233183856498</v>
@@ -44479,7 +44476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>143</v>
       </c>
@@ -44502,7 +44499,7 @@
         <v>43</v>
       </c>
       <c r="J335" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K335" s="5">
         <v>-21.076233183856498</v>
@@ -44514,7 +44511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>143</v>
       </c>
@@ -44537,7 +44534,7 @@
         <v>43</v>
       </c>
       <c r="J336" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K336" s="5">
         <v>-21.076233183856498</v>
@@ -44549,7 +44546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>143</v>
       </c>
@@ -44572,7 +44569,7 @@
         <v>44</v>
       </c>
       <c r="J337" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K337" s="5">
         <v>12.825112107623299</v>
@@ -44584,7 +44581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>143</v>
       </c>
@@ -44607,7 +44604,7 @@
         <v>44</v>
       </c>
       <c r="J338" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K338" s="5">
         <v>8.3408071748878907</v>
@@ -44619,7 +44616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>143</v>
       </c>
@@ -44642,7 +44639,7 @@
         <v>44</v>
       </c>
       <c r="J339" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K339" s="5">
         <v>6.18834080717488</v>
@@ -44654,7 +44651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>143</v>
       </c>
@@ -44677,7 +44674,7 @@
         <v>44</v>
       </c>
       <c r="J340" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K340" s="5">
         <v>3.3183856502242102</v>
@@ -44689,7 +44686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>143</v>
       </c>
@@ -44712,7 +44709,7 @@
         <v>45</v>
       </c>
       <c r="J341" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K341" s="5">
         <v>8.6995515695067205</v>
@@ -44724,7 +44721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>143</v>
       </c>
@@ -44747,7 +44744,7 @@
         <v>45</v>
       </c>
       <c r="J342" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K342" s="5">
         <v>7.26457399103138</v>
@@ -44759,7 +44756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>143</v>
       </c>
@@ -44782,7 +44779,7 @@
         <v>45</v>
       </c>
       <c r="J343" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K343" s="5">
         <v>4.57399103139013</v>
@@ -44794,7 +44791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>143</v>
       </c>
@@ -44817,7 +44814,7 @@
         <v>45</v>
       </c>
       <c r="J344" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K344" s="5">
         <v>-2.9596412556053799</v>
@@ -44829,7 +44826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>143</v>
       </c>
@@ -44852,7 +44849,7 @@
         <v>45</v>
       </c>
       <c r="J345" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K345" s="5">
         <v>-2.9596412556053799</v>
@@ -44864,7 +44861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>143</v>
       </c>
@@ -44887,7 +44884,7 @@
         <v>45</v>
       </c>
       <c r="J346" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K346" s="5">
         <v>-2.9596412556053799</v>
@@ -44922,7 +44919,7 @@
         <v>43</v>
       </c>
       <c r="J347" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K347" s="5">
         <v>8.6995515695067205</v>
@@ -44957,7 +44954,7 @@
         <v>43</v>
       </c>
       <c r="J348" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K348" s="5">
         <v>18.923766816143399</v>
@@ -44992,7 +44989,7 @@
         <v>43</v>
       </c>
       <c r="J349" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K349" s="5">
         <v>29.686098654708498</v>
@@ -45027,7 +45024,7 @@
         <v>43</v>
       </c>
       <c r="J350" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K350" s="5">
         <v>12.6457399103139</v>
@@ -45062,7 +45059,7 @@
         <v>44</v>
       </c>
       <c r="J351" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K351" s="5">
         <v>10.134529147982001</v>
@@ -45097,7 +45094,7 @@
         <v>45</v>
       </c>
       <c r="J352" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K352" s="5">
         <v>2.2421524663677102</v>
@@ -45109,7 +45106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>143</v>
       </c>
@@ -45132,7 +45129,7 @@
         <v>43</v>
       </c>
       <c r="J353" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K353" s="5">
         <v>1.1659192825111999</v>
@@ -45144,7 +45141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>143</v>
       </c>
@@ -45158,7 +45155,7 @@
         <v>110</v>
       </c>
       <c r="F354" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G354" t="s">
         <v>42</v>
@@ -45167,7 +45164,7 @@
         <v>43</v>
       </c>
       <c r="J354" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K354" s="5">
         <v>3.8565022421524602</v>
@@ -45179,7 +45176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>143</v>
       </c>
@@ -45202,7 +45199,7 @@
         <v>43</v>
       </c>
       <c r="J355" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K355" s="5">
         <v>16.412556053811599</v>
@@ -45214,7 +45211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>143</v>
       </c>
@@ -45237,7 +45234,7 @@
         <v>44</v>
       </c>
       <c r="J356" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K356" s="5">
         <v>13.901345291479799</v>
@@ -45249,7 +45246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>143</v>
       </c>
@@ -45263,7 +45260,7 @@
         <v>110</v>
       </c>
       <c r="F357" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G357" t="s">
         <v>42</v>
@@ -45272,7 +45269,7 @@
         <v>44</v>
       </c>
       <c r="J357" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K357" s="5">
         <v>3.4977578475336299</v>
@@ -45284,7 +45281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>143</v>
       </c>
@@ -45307,7 +45304,7 @@
         <v>44</v>
       </c>
       <c r="J358" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K358" s="5">
         <v>10.134529147982001</v>
@@ -45319,7 +45316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>143</v>
       </c>
@@ -45333,7 +45330,7 @@
         <v>110</v>
       </c>
       <c r="F359" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G359" t="s">
         <v>42</v>
@@ -45342,7 +45339,7 @@
         <v>45</v>
       </c>
       <c r="J359" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K359" s="5">
         <v>7.4439461883408002</v>
@@ -45354,7 +45351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>143</v>
       </c>
@@ -45377,7 +45374,7 @@
         <v>45</v>
       </c>
       <c r="J360" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K360" s="5">
         <v>2.7802690582959602</v>
@@ -45412,7 +45409,7 @@
         <v>43</v>
       </c>
       <c r="J361" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K361" s="5">
         <v>4.2222222222222197</v>
@@ -45447,7 +45444,7 @@
         <v>43</v>
       </c>
       <c r="J362" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K362" s="5">
         <v>15.422222222222199</v>
@@ -45482,7 +45479,7 @@
         <v>44</v>
       </c>
       <c r="J363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K363" s="5">
         <v>6</v>
@@ -45505,10 +45502,10 @@
         <v>53</v>
       </c>
       <c r="E364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F364" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G364" t="s">
         <v>42</v>
@@ -45517,7 +45514,7 @@
         <v>44</v>
       </c>
       <c r="J364" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K364" s="5">
         <v>9.0222222222222204</v>
@@ -45552,7 +45549,7 @@
         <v>44</v>
       </c>
       <c r="J365" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K365" s="5">
         <v>7.7777777777777697</v>
@@ -45575,7 +45572,7 @@
         <v>53</v>
       </c>
       <c r="E366" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F366" t="s">
         <v>155</v>
@@ -45587,7 +45584,7 @@
         <v>45</v>
       </c>
       <c r="J366" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K366" s="5">
         <v>2.2666666666666599</v>
@@ -45607,7 +45604,7 @@
         <v>137</v>
       </c>
       <c r="D367" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E367" t="s">
         <v>33</v>
@@ -45622,7 +45619,7 @@
         <v>43</v>
       </c>
       <c r="J367" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K367" s="5">
         <v>25.733333333333299</v>
@@ -45642,7 +45639,7 @@
         <v>137</v>
       </c>
       <c r="D368" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E368" t="s">
         <v>35</v>
@@ -45657,7 +45654,7 @@
         <v>43</v>
       </c>
       <c r="J368" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K368" s="5">
         <v>12.9333333333333</v>
@@ -45677,7 +45674,7 @@
         <v>137</v>
       </c>
       <c r="D369" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E369" t="s">
         <v>36</v>
@@ -45692,7 +45689,7 @@
         <v>43</v>
       </c>
       <c r="J369" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K369" s="5">
         <v>23.955555555555499</v>
@@ -45712,7 +45709,7 @@
         <v>137</v>
       </c>
       <c r="D370" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E370" t="s">
         <v>34</v>
@@ -45727,7 +45724,7 @@
         <v>45</v>
       </c>
       <c r="J370" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K370" s="5">
         <v>-3.24444444444444</v>
@@ -45747,7 +45744,7 @@
         <v>137</v>
       </c>
       <c r="D371" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E371" t="s">
         <v>35</v>
@@ -45762,7 +45759,7 @@
         <v>45</v>
       </c>
       <c r="J371" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K371" s="5">
         <v>5.4666666666666597</v>
@@ -45797,7 +45794,7 @@
         <v>43</v>
       </c>
       <c r="J372" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K372" s="5">
         <v>5.4666666666666597</v>
@@ -45832,7 +45829,7 @@
         <v>43</v>
       </c>
       <c r="J373" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K373" s="5">
         <v>10.9777777777777</v>
@@ -45867,7 +45864,7 @@
         <v>43</v>
       </c>
       <c r="J374" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K374" s="5">
         <v>12.9333333333333</v>
@@ -45902,7 +45899,7 @@
         <v>44</v>
       </c>
       <c r="J375" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K375" s="5">
         <v>1.0222222222222199</v>
@@ -45937,7 +45934,7 @@
         <v>45</v>
       </c>
       <c r="J376" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K376" s="5">
         <v>2.2666666666666599</v>
@@ -45972,7 +45969,7 @@
         <v>45</v>
       </c>
       <c r="J377" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K377" s="5">
         <v>8.1333333333333293</v>
@@ -46007,7 +46004,7 @@
         <v>43</v>
       </c>
       <c r="J378" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K378" s="5">
         <v>13.1111111111111</v>
@@ -46042,7 +46039,7 @@
         <v>43</v>
       </c>
       <c r="J379" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K379" s="5">
         <v>19.688888888888801</v>
@@ -46077,7 +46074,7 @@
         <v>43</v>
       </c>
       <c r="J380" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K380" s="5">
         <v>5.8222222222222202</v>
@@ -46112,7 +46109,7 @@
         <v>43</v>
       </c>
       <c r="J381" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K381" s="5">
         <v>21.288888888888799</v>
@@ -46147,7 +46144,7 @@
         <v>44</v>
       </c>
       <c r="J382" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K382" s="5">
         <v>-2.3555555555555499</v>
@@ -46182,7 +46179,7 @@
         <v>44</v>
       </c>
       <c r="J383" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K383" s="5">
         <v>9.7333333333333307</v>
@@ -46217,7 +46214,7 @@
         <v>44</v>
       </c>
       <c r="J384" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K384" s="5">
         <v>5.1111111111111098</v>
@@ -46252,7 +46249,7 @@
         <v>45</v>
       </c>
       <c r="J385" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K385" s="5">
         <v>2.4444444444444402</v>
@@ -46287,7 +46284,7 @@
         <v>45</v>
       </c>
       <c r="J386" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K386" s="5">
         <v>6.5333333333333297</v>
@@ -46323,7 +46320,7 @@
       </c>
       <c r="I387" s="8"/>
       <c r="J387" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K387" s="5">
         <v>12.7555555555555</v>
@@ -46359,7 +46356,7 @@
       </c>
       <c r="I388" s="8"/>
       <c r="J388" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K388" s="5">
         <v>22.711111111111101</v>
@@ -46395,7 +46392,7 @@
       </c>
       <c r="I389" s="8"/>
       <c r="J389" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K389" s="5">
         <v>29.288888888888799</v>
@@ -46431,7 +46428,7 @@
       </c>
       <c r="I390" s="8"/>
       <c r="J390" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K390" s="5">
         <v>9.0222222222222204</v>
@@ -46467,7 +46464,7 @@
       </c>
       <c r="I391" s="8"/>
       <c r="J391" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K391" s="5">
         <v>3.68888888888889</v>
@@ -46503,7 +46500,7 @@
       </c>
       <c r="I392" s="8"/>
       <c r="J392" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K392" s="5">
         <v>-3.24444444444444</v>
@@ -46538,7 +46535,7 @@
         <v>43</v>
       </c>
       <c r="J393" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K393" s="5">
         <v>4.2222222222222197</v>
@@ -46573,7 +46570,7 @@
         <v>43</v>
       </c>
       <c r="J394" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K394" s="5">
         <v>29.822222222222202</v>
@@ -46608,7 +46605,7 @@
         <v>43</v>
       </c>
       <c r="J395" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K395" s="5">
         <v>10.9777777777777</v>
@@ -46643,7 +46640,7 @@
         <v>43</v>
       </c>
       <c r="J396" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K396" s="5">
         <v>13.6444444444444</v>
@@ -46678,7 +46675,7 @@
         <v>44</v>
       </c>
       <c r="J397" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K397" s="5">
         <v>8.8444444444444397</v>
@@ -46713,7 +46710,7 @@
         <v>44</v>
       </c>
       <c r="J398" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K398" s="5">
         <v>4.7555555555555502</v>
@@ -46748,7 +46745,7 @@
         <v>44</v>
       </c>
       <c r="J399" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K399" s="5">
         <v>7.6</v>
@@ -46783,7 +46780,7 @@
         <v>44</v>
       </c>
       <c r="J400" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K400" s="5">
         <v>6</v>
@@ -46818,7 +46815,7 @@
         <v>45</v>
       </c>
       <c r="J401" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K401" s="5">
         <v>9.0222222222222204</v>
@@ -46853,7 +46850,7 @@
         <v>45</v>
       </c>
       <c r="J402" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K402" s="5">
         <v>4.0444444444444398</v>
@@ -46888,7 +46885,7 @@
         <v>45</v>
       </c>
       <c r="J403" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K403" s="5">
         <v>2.2666666666666599</v>
@@ -46900,7 +46897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>183</v>
       </c>
@@ -46926,7 +46923,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>183</v>
       </c>
@@ -46952,7 +46949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>183</v>
       </c>
@@ -46978,7 +46975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>183</v>
       </c>
@@ -47004,7 +47001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>183</v>
       </c>
@@ -47030,7 +47027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>183</v>
       </c>
@@ -47056,7 +47053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>183</v>
       </c>
@@ -47082,7 +47079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>183</v>
       </c>
@@ -47108,7 +47105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>183</v>
       </c>
@@ -47134,7 +47131,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>183</v>
       </c>
@@ -47160,7 +47157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>183</v>
       </c>
@@ -47186,7 +47183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>183</v>
       </c>
@@ -47212,7 +47209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>183</v>
       </c>
@@ -47238,7 +47235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>183</v>
       </c>
@@ -47264,7 +47261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>183</v>
       </c>
@@ -47293,7 +47290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>183</v>
       </c>
@@ -47322,7 +47319,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>183</v>
       </c>
@@ -47351,7 +47348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>183</v>
       </c>
@@ -47380,7 +47377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>183</v>
       </c>
@@ -47409,7 +47406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>183</v>
       </c>
@@ -47438,7 +47435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>183</v>
       </c>
@@ -47484,7 +47481,7 @@
         <v>36</v>
       </c>
       <c r="F425" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K425" s="8">
         <v>10.6199460916442</v>
@@ -47513,7 +47510,7 @@
         <v>35</v>
       </c>
       <c r="F426" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K426" s="8">
         <v>10.6199460916442</v>
@@ -47571,7 +47568,7 @@
         <v>33</v>
       </c>
       <c r="F428" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K428" s="8">
         <v>9.8113207547169807</v>
@@ -47600,7 +47597,7 @@
         <v>34</v>
       </c>
       <c r="F429" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K429" s="8">
         <v>9.8113207547169807</v>
@@ -47612,7 +47609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>183</v>
       </c>
@@ -47638,7 +47635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>183</v>
       </c>
@@ -47664,7 +47661,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>183</v>
       </c>
@@ -47690,7 +47687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>183</v>
       </c>
@@ -47716,7 +47713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>183</v>
       </c>
@@ -47742,7 +47739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>183</v>
       </c>
@@ -47768,7 +47765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>183</v>
       </c>
@@ -47936,7 +47933,7 @@
         <v>36</v>
       </c>
       <c r="F442" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K442" s="5">
         <v>25.4090150250417</v>
@@ -47962,7 +47959,7 @@
         <v>35</v>
       </c>
       <c r="F443" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K443" s="5">
         <v>25.4090150250417</v>
@@ -48014,7 +48011,7 @@
         <v>33</v>
       </c>
       <c r="F445" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K445" s="5">
         <v>9.5158597662771207</v>
@@ -48040,7 +48037,7 @@
         <v>34</v>
       </c>
       <c r="F446" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K446" s="5">
         <v>9.5158597662771207</v>
@@ -48052,7 +48049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>183</v>
       </c>
@@ -48081,7 +48078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>183</v>
       </c>
@@ -48110,7 +48107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>183</v>
       </c>
@@ -48139,7 +48136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>183</v>
       </c>
@@ -48168,7 +48165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>183</v>
       </c>
@@ -48197,7 +48194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>183</v>
       </c>
@@ -48226,7 +48223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>183</v>
       </c>
@@ -48379,7 +48376,7 @@
         <v>118</v>
       </c>
       <c r="D458" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E458" t="s">
         <v>108</v>
@@ -48405,7 +48402,7 @@
         <v>118</v>
       </c>
       <c r="D459" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E459" t="s">
         <v>108</v>
@@ -48431,7 +48428,7 @@
         <v>118</v>
       </c>
       <c r="D460" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E460" t="s">
         <v>108</v>
@@ -48449,7 +48446,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>204</v>
       </c>
@@ -48475,7 +48472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>204</v>
       </c>
@@ -48501,7 +48498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>204</v>
       </c>
@@ -48527,7 +48524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>204</v>
       </c>
@@ -48553,7 +48550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>204</v>
       </c>
@@ -48579,7 +48576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>204</v>
       </c>
@@ -48688,7 +48685,7 @@
         <v>91</v>
       </c>
       <c r="F470" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K470" s="5">
         <v>14.833702882483299</v>
@@ -48714,7 +48711,7 @@
         <v>91</v>
       </c>
       <c r="F471" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K471" s="5">
         <v>16.829268292682901</v>
@@ -48740,7 +48737,7 @@
         <v>91</v>
       </c>
       <c r="F472" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K472" s="5">
         <v>13.237250554323699</v>
@@ -48766,7 +48763,7 @@
         <v>91</v>
       </c>
       <c r="F473" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K473" s="5">
         <v>7.9157427937915701</v>
@@ -48792,7 +48789,7 @@
         <v>91</v>
       </c>
       <c r="F474" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K474" s="5">
         <v>6.1197339246119702</v>
@@ -48942,7 +48939,7 @@
         <v>12</v>
       </c>
       <c r="D480" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E480" t="s">
         <v>108</v>
@@ -48968,7 +48965,7 @@
         <v>12</v>
       </c>
       <c r="D481" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E481" t="s">
         <v>108</v>
@@ -48994,7 +48991,7 @@
         <v>12</v>
       </c>
       <c r="D482" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E482" t="s">
         <v>108</v>
@@ -49012,7 +49009,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>204</v>
       </c>
@@ -49038,7 +49035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>204</v>
       </c>
@@ -49064,7 +49061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>204</v>
       </c>
@@ -49090,7 +49087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>204</v>
       </c>
@@ -49116,7 +49113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>204</v>
       </c>
@@ -49142,7 +49139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>204</v>
       </c>
@@ -49251,7 +49248,7 @@
         <v>91</v>
       </c>
       <c r="F492" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K492" s="5">
         <v>45.232815964523198</v>
@@ -49277,7 +49274,7 @@
         <v>91</v>
       </c>
       <c r="F493" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K493" s="5">
         <v>45.232815964523198</v>
@@ -49303,7 +49300,7 @@
         <v>91</v>
       </c>
       <c r="F494" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K494" s="5">
         <v>34.146341463414601</v>
@@ -49329,7 +49326,7 @@
         <v>91</v>
       </c>
       <c r="F495" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K495" s="5">
         <v>26.829268292682901</v>
@@ -49355,7 +49352,7 @@
         <v>91</v>
       </c>
       <c r="F496" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K496" s="5">
         <v>12.6385809312638</v>
@@ -49499,9 +49496,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N501" xr:uid="{E0108F44-9AB1-43D9-B41B-7BC1ED64F125}">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
-        <filter val="bulk density"/>
+        <filter val="bc dose"/>
       </filters>
     </filterColumn>
   </autoFilter>
